--- a/raw_data/20200818_saline/20200818_Sensor1_Test_39.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_39.xlsx
@@ -1,2594 +1,3010 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99AE653-935D-4460-86AC-8733172D4D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>34387.936524</v>
+        <v>34387.936523999997</v>
       </c>
       <c r="B2" s="1">
-        <v>9.552205</v>
+        <v>9.5522050000000007</v>
       </c>
       <c r="C2" s="1">
-        <v>902.979000</v>
+        <v>902.97900000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-202.413000</v>
+        <v>-202.41300000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>34398.300958</v>
       </c>
       <c r="G2" s="1">
-        <v>9.555084</v>
+        <v>9.5550840000000008</v>
       </c>
       <c r="H2" s="1">
-        <v>921.019000</v>
+        <v>921.01900000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.175000</v>
+        <v>-171.17500000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>34408.801727</v>
+        <v>34408.801726999998</v>
       </c>
       <c r="L2" s="1">
-        <v>9.558000</v>
+        <v>9.5579999999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>944.342000</v>
+        <v>944.34199999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.272000</v>
+        <v>-121.27200000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>34419.278226</v>
+        <v>34419.278226000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.560911</v>
+        <v>9.5609110000000008</v>
       </c>
       <c r="R2" s="1">
-        <v>951.179000</v>
+        <v>951.17899999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.733000</v>
+        <v>-104.733</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>34429.867811</v>
+        <v>34429.867810999996</v>
       </c>
       <c r="V2" s="1">
-        <v>9.563852</v>
+        <v>9.5638520000000007</v>
       </c>
       <c r="W2" s="1">
-        <v>957.855000</v>
+        <v>957.85500000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.424000</v>
+        <v>-89.424000000000007</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>34440.654822</v>
+        <v>34440.654821999997</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.566849</v>
+        <v>9.5668489999999995</v>
       </c>
       <c r="AB2" s="1">
-        <v>965.020000</v>
+        <v>965.02</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.500000</v>
+        <v>-77.5</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>34451.234502</v>
+        <v>34451.234501999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.569787</v>
+        <v>9.5697869999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.786000</v>
+        <v>969.78599999999994</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.130600</v>
+        <v>-75.130600000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>34461.974345</v>
+        <v>34461.974345000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.572771</v>
+        <v>9.5727709999999995</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.933000</v>
+        <v>976.93299999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.690900</v>
+        <v>-79.690899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>34472.318907</v>
+        <v>34472.318907000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.575644</v>
+        <v>9.5756440000000005</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.008000</v>
+        <v>985.00800000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.186700</v>
+        <v>-91.186700000000002</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>34483.351918</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.578709</v>
+        <v>9.5787089999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.808000</v>
+        <v>994.80799999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.784000</v>
+        <v>-108.78400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>34494.097247</v>
+        <v>34494.097246999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.581694</v>
+        <v>9.5816940000000006</v>
       </c>
       <c r="BA2" s="1">
-        <v>1003.070000</v>
+        <v>1003.07</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.331000</v>
+        <v>-124.331</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>34505.108224</v>
+        <v>34505.108224000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.584752</v>
+        <v>9.5847519999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.154000</v>
+        <v>-196.154</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>34516.043233</v>
+        <v>34516.043232999997</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.587790</v>
+        <v>9.58779</v>
       </c>
       <c r="BK2" s="1">
-        <v>1107.470000</v>
+        <v>1107.47</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.179000</v>
+        <v>-313.17899999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>34526.533123</v>
+        <v>34526.533123000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.590704</v>
+        <v>9.5907040000000006</v>
       </c>
       <c r="BP2" s="1">
-        <v>1215.120000</v>
+        <v>1215.1199999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-498.289000</v>
+        <v>-498.28899999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>34536.914886</v>
+        <v>34536.914885999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.593587</v>
+        <v>9.5935869999999994</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.710000</v>
+        <v>1336.71</v>
       </c>
       <c r="BV2" s="1">
-        <v>-702.028000</v>
+        <v>-702.02800000000002</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>34548.023785</v>
+        <v>34548.023784999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.596673</v>
+        <v>9.5966729999999991</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.760000</v>
+        <v>1472.76</v>
       </c>
       <c r="CA2" s="1">
-        <v>-918.810000</v>
+        <v>-918.81</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>34558.938745</v>
+        <v>34558.938744999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.599705</v>
+        <v>9.5997050000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1831.450000</v>
+        <v>1831.45</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1434.240000</v>
+        <v>-1434.24</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>34388.312031</v>
+        <v>34388.312031000001</v>
       </c>
       <c r="B3" s="1">
-        <v>9.552309</v>
+        <v>9.5523089999999993</v>
       </c>
       <c r="C3" s="1">
-        <v>902.850000</v>
+        <v>902.85</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.304000</v>
+        <v>-202.304</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>34398.704670</v>
+        <v>34398.704669999999</v>
       </c>
       <c r="G3" s="1">
-        <v>9.555196</v>
+        <v>9.5551960000000005</v>
       </c>
       <c r="H3" s="1">
-        <v>921.061000</v>
+        <v>921.06100000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.495000</v>
+        <v>-171.495</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>34409.149919</v>
+        <v>34409.149919000003</v>
       </c>
       <c r="L3" s="1">
-        <v>9.558097</v>
+        <v>9.5580970000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>944.365000</v>
+        <v>944.36500000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.288000</v>
+        <v>-121.288</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>34419.663120</v>
+        <v>34419.663119999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.561018</v>
+        <v>9.5610180000000007</v>
       </c>
       <c r="R3" s="1">
-        <v>951.222000</v>
+        <v>951.22199999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.726000</v>
+        <v>-104.726</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>34430.251220</v>
+        <v>34430.251219999998</v>
       </c>
       <c r="V3" s="1">
-        <v>9.563959</v>
+        <v>9.5639590000000005</v>
       </c>
       <c r="W3" s="1">
-        <v>957.973000</v>
+        <v>957.97299999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.447800</v>
+        <v>-89.447800000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>34441.387892</v>
+        <v>34441.387891999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.567052</v>
+        <v>9.5670520000000003</v>
       </c>
       <c r="AB3" s="1">
-        <v>965.018000</v>
+        <v>965.01800000000003</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.532600</v>
+        <v>-77.532600000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>34451.950694</v>
+        <v>34451.950693999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.569986</v>
+        <v>9.5699860000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.777000</v>
+        <v>969.77700000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.123800</v>
+        <v>-75.123800000000003</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>34462.361226</v>
+        <v>34462.361226000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.572878</v>
+        <v>9.5728779999999993</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.932000</v>
+        <v>976.93200000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.680000</v>
+        <v>-79.680000000000007</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>34472.712730</v>
+        <v>34472.712729999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.575754</v>
+        <v>9.5757539999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.005000</v>
+        <v>985.005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.187600</v>
+        <v>-91.187600000000003</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>34483.736853</v>
+        <v>34483.736853000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.578816</v>
+        <v>9.5788159999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.820000</v>
+        <v>994.82</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.742000</v>
+        <v>-108.742</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>34494.788671</v>
+        <v>34494.788671000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.581886</v>
+        <v>9.5818860000000008</v>
       </c>
       <c r="BA3" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.331000</v>
+        <v>-124.331</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>34505.658496</v>
+        <v>34505.658495999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.584905</v>
+        <v>9.5849049999999991</v>
       </c>
       <c r="BF3" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.163000</v>
+        <v>-196.16300000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>34516.154835</v>
+        <v>34516.154835000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.587821</v>
+        <v>9.5878209999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1107.470000</v>
+        <v>1107.47</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.211000</v>
+        <v>-313.21100000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>34526.972085</v>
+        <v>34526.972085000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.590826</v>
+        <v>9.5908259999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-498.283000</v>
+        <v>-498.28300000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>34537.335524</v>
+        <v>34537.335524000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.593704</v>
+        <v>9.5937040000000007</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.820000</v>
+        <v>1336.82</v>
       </c>
       <c r="BV3" s="1">
-        <v>-702.053000</v>
+        <v>-702.053</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>34548.499446</v>
+        <v>34548.499446000002</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.596805</v>
+        <v>9.5968049999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.980000</v>
+        <v>1472.98</v>
       </c>
       <c r="CA3" s="1">
-        <v>-918.784000</v>
+        <v>-918.78399999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>34559.530471</v>
+        <v>34559.530470999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.599870</v>
+        <v>9.5998699999999992</v>
       </c>
       <c r="CE3" s="1">
-        <v>1832.110000</v>
+        <v>1832.11</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1434.920000</v>
+        <v>-1434.92</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>34388.647786</v>
+        <v>34388.647786000001</v>
       </c>
       <c r="B4" s="1">
-        <v>9.552402</v>
+        <v>9.5524020000000007</v>
       </c>
       <c r="C4" s="1">
-        <v>902.899000</v>
+        <v>902.899</v>
       </c>
       <c r="D4" s="1">
-        <v>-202.293000</v>
+        <v>-202.29300000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>34399.049420</v>
+        <v>34399.049420000003</v>
       </c>
       <c r="G4" s="1">
-        <v>9.555292</v>
+        <v>9.5552919999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>920.843000</v>
+        <v>920.84299999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.036000</v>
+        <v>-171.036</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>34409.499112</v>
+        <v>34409.499111999998</v>
       </c>
       <c r="L4" s="1">
-        <v>9.558194</v>
+        <v>9.5581940000000003</v>
       </c>
       <c r="M4" s="1">
-        <v>944.262000</v>
+        <v>944.26199999999994</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.259000</v>
+        <v>-121.259</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>34420.013828</v>
+        <v>34420.013828000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.561115</v>
+        <v>9.5611149999999991</v>
       </c>
       <c r="R4" s="1">
-        <v>951.217000</v>
+        <v>951.21699999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.769000</v>
+        <v>-104.76900000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>34430.934242</v>
+        <v>34430.934242000003</v>
       </c>
       <c r="V4" s="1">
-        <v>9.564148</v>
+        <v>9.5641479999999994</v>
       </c>
       <c r="W4" s="1">
-        <v>957.904000</v>
+        <v>957.904</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.442200</v>
+        <v>-89.4422</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>34441.736579</v>
+        <v>34441.736578999997</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.567149</v>
+        <v>9.5671490000000006</v>
       </c>
       <c r="AB4" s="1">
-        <v>965.103000</v>
+        <v>965.10299999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.501800</v>
+        <v>-77.501800000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>34452.289985</v>
+        <v>34452.289985000003</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.570081</v>
+        <v>9.5700810000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.775000</v>
+        <v>969.77499999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.134100</v>
+        <v>-75.134100000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>34462.706968</v>
+        <v>34462.706967999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.572974</v>
+        <v>9.5729740000000003</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.946000</v>
+        <v>976.94600000000003</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.705000</v>
+        <v>-79.704999999999998</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>34473.397706</v>
+        <v>34473.397706000003</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.575944</v>
+        <v>9.5759439999999998</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.011000</v>
+        <v>985.01099999999997</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.170200</v>
+        <v>-91.170199999999994</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>34484.403435</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.579001</v>
+        <v>9.5790009999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.831000</v>
+        <v>994.83100000000002</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.719000</v>
+        <v>-108.71899999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>34495.210764</v>
+        <v>34495.210764000003</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.582003</v>
+        <v>9.5820030000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.350000</v>
+        <v>-124.35</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>34505.832096</v>
+        <v>34505.832095999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.584953</v>
+        <v>9.5849530000000005</v>
       </c>
       <c r="BF4" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.185000</v>
+        <v>-196.185</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>34516.529841</v>
+        <v>34516.529841000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.587925</v>
+        <v>9.5879250000000003</v>
       </c>
       <c r="BK4" s="1">
-        <v>1107.450000</v>
+        <v>1107.45</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.218000</v>
+        <v>-313.21800000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>34527.393713</v>
+        <v>34527.393712999998</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.590943</v>
+        <v>9.5909429999999993</v>
       </c>
       <c r="BP4" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-498.334000</v>
+        <v>-498.334</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>34537.746223</v>
+        <v>34537.746223000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.593818</v>
+        <v>9.5938180000000006</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.750000</v>
+        <v>1336.75</v>
       </c>
       <c r="BV4" s="1">
-        <v>-701.992000</v>
+        <v>-701.99199999999996</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>34548.929510</v>
+        <v>34548.929510000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.596925</v>
+        <v>9.5969250000000006</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.890000</v>
+        <v>1472.89</v>
       </c>
       <c r="CA4" s="1">
-        <v>-918.897000</v>
+        <v>-918.89700000000005</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>34560.066183</v>
+        <v>34560.066183000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.600018</v>
+        <v>9.6000180000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>1831.650000</v>
+        <v>1831.65</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1433.910000</v>
+        <v>-1433.91</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>34388.992009</v>
+        <v>34388.992009000001</v>
       </c>
       <c r="B5" s="1">
-        <v>9.552498</v>
+        <v>9.5524979999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>902.824000</v>
+        <v>902.82399999999996</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.386000</v>
+        <v>-202.386</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>34399.393172</v>
+        <v>34399.393171999996</v>
       </c>
       <c r="G5" s="1">
-        <v>9.555387</v>
+        <v>9.5553869999999996</v>
       </c>
       <c r="H5" s="1">
-        <v>921.095000</v>
+        <v>921.09500000000003</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.123000</v>
+        <v>-171.12299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>34410.190525</v>
+        <v>34410.190524999998</v>
       </c>
       <c r="L5" s="1">
-        <v>9.558386</v>
+        <v>9.5583860000000005</v>
       </c>
       <c r="M5" s="1">
-        <v>944.348000</v>
+        <v>944.34799999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.413000</v>
+        <v>-121.413</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>34420.707199</v>
+        <v>34420.707198999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.561308</v>
+        <v>9.5613080000000004</v>
       </c>
       <c r="R5" s="1">
-        <v>951.220000</v>
+        <v>951.22</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.779000</v>
+        <v>-104.779</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>34431.280422</v>
+        <v>34431.280422000003</v>
       </c>
       <c r="V5" s="1">
-        <v>9.564245</v>
+        <v>9.5642449999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>957.873000</v>
+        <v>957.87300000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.333600</v>
+        <v>-89.333600000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>34442.084276</v>
+        <v>34442.084276000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.567246</v>
+        <v>9.5672460000000008</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.993000</v>
+        <v>964.99300000000005</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.502400</v>
+        <v>-77.502399999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>34452.634213</v>
+        <v>34452.634212999998</v>
       </c>
       <c r="AF5" s="1">
         <v>9.570176</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.767000</v>
+        <v>969.76700000000005</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.085700</v>
+        <v>-75.085700000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>34463.362648</v>
+        <v>34463.362648000002</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.573156</v>
+        <v>9.5731560000000009</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.929000</v>
+        <v>976.92899999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.734300</v>
+        <v>-79.734300000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>34473.812857</v>
+        <v>34473.812856999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.576059</v>
+        <v>9.5760590000000008</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.007000</v>
+        <v>985.00699999999995</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.186300</v>
+        <v>-91.186300000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>34484.831023</v>
+        <v>34484.831022999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.579120</v>
+        <v>9.5791199999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.818000</v>
+        <v>994.81799999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.747000</v>
+        <v>-108.747</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>34495.591228</v>
+        <v>34495.591227999997</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.582109</v>
+        <v>9.5821090000000009</v>
       </c>
       <c r="BA5" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.347000</v>
+        <v>-124.34699999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>34506.194174</v>
+        <v>34506.194173999997</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.585054</v>
+        <v>9.5850539999999995</v>
       </c>
       <c r="BF5" s="1">
-        <v>1041.370000</v>
+        <v>1041.3699999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.171000</v>
+        <v>-196.17099999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>34516.906273</v>
+        <v>34516.906273000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.588030</v>
+        <v>9.5880299999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1107.470000</v>
+        <v>1107.47</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.190000</v>
+        <v>-313.19</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>34527.824706</v>
+        <v>34527.824705999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.591062</v>
+        <v>9.5910620000000009</v>
       </c>
       <c r="BP5" s="1">
-        <v>1215.120000</v>
+        <v>1215.1199999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-498.293000</v>
+        <v>-498.29300000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>34538.183653</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.593940</v>
+        <v>9.5939399999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.720000</v>
+        <v>1336.72</v>
       </c>
       <c r="BV5" s="1">
-        <v>-702.095000</v>
+        <v>-702.09500000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>34549.352598</v>
+        <v>34549.352597999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.597042</v>
+        <v>9.5970420000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.900000</v>
+        <v>1472.9</v>
       </c>
       <c r="CA5" s="1">
-        <v>-918.890000</v>
+        <v>-918.89</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>34560.580998</v>
+        <v>34560.580997999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.600161</v>
+        <v>9.6001609999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1832.520000</v>
+        <v>1832.52</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1434.500000</v>
+        <v>-1434.5</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>34389.676984</v>
+        <v>34389.676983999998</v>
       </c>
       <c r="B6" s="1">
-        <v>9.552688</v>
+        <v>9.5526879999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>903.078000</v>
+        <v>903.07799999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-202.255000</v>
+        <v>-202.255</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>34400.083548</v>
+        <v>34400.083548000002</v>
       </c>
       <c r="G6" s="1">
-        <v>9.555579</v>
+        <v>9.5555789999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>920.738000</v>
+        <v>920.73800000000006</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.428000</v>
+        <v>-171.428</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>34410.536237</v>
       </c>
       <c r="L6" s="1">
-        <v>9.558482</v>
+        <v>9.5584819999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>944.348000</v>
+        <v>944.34799999999996</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.137000</v>
+        <v>-121.137</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>34421.054430</v>
+        <v>34421.054429999997</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.561404</v>
+        <v>9.5614039999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>951.184000</v>
+        <v>951.18399999999997</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.765000</v>
+        <v>-104.765</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>34431.623650</v>
+        <v>34431.623650000001</v>
       </c>
       <c r="V6" s="1">
-        <v>9.564340</v>
+        <v>9.5643399999999996</v>
       </c>
       <c r="W6" s="1">
-        <v>957.922000</v>
+        <v>957.92200000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.446500</v>
+        <v>-89.4465</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>34442.753875</v>
+        <v>34442.753875000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.567432</v>
+        <v>9.5674320000000002</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.984000</v>
+        <v>964.98400000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.526200</v>
+        <v>-77.526200000000003</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>34453.289892</v>
+        <v>34453.289892000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.570358</v>
+        <v>9.5703580000000006</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.802000</v>
+        <v>969.80200000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.131400</v>
+        <v>-75.131399999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>34463.754488</v>
+        <v>34463.754487999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.573265</v>
+        <v>9.5732649999999992</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.932000</v>
+        <v>976.93200000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.735300</v>
+        <v>-79.735299999999995</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>34474.172953</v>
+        <v>34474.172953000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.576159</v>
+        <v>9.5761590000000005</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.011000</v>
+        <v>985.01099999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.183200</v>
+        <v>-91.183199999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>34485.192603</v>
+        <v>34485.192603000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.579220</v>
+        <v>9.5792199999999994</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.835000</v>
+        <v>994.83500000000004</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.719000</v>
+        <v>-108.71899999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>34495.969181</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.582214</v>
+        <v>9.5822140000000005</v>
       </c>
       <c r="BA6" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.336000</v>
+        <v>-124.336</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>34506.611345</v>
+        <v>34506.611344999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.585170</v>
+        <v>9.5851699999999997</v>
       </c>
       <c r="BF6" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.154000</v>
+        <v>-196.154</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>34517.323668</v>
+        <v>34517.323667999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.588145</v>
+        <v>9.5881450000000008</v>
       </c>
       <c r="BK6" s="1">
-        <v>1107.480000</v>
+        <v>1107.48</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.218000</v>
+        <v>-313.21800000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>34528.212081</v>
+        <v>34528.212080999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.591170</v>
+        <v>9.59117</v>
       </c>
       <c r="BP6" s="1">
-        <v>1215.090000</v>
+        <v>1215.0899999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-498.332000</v>
+        <v>-498.33199999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>34538.611203</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.594059</v>
+        <v>9.5940589999999997</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.820000</v>
+        <v>1336.82</v>
       </c>
       <c r="BV6" s="1">
-        <v>-701.975000</v>
+        <v>-701.97500000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>34549.773701</v>
+        <v>34549.773700999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.597159</v>
+        <v>9.5971589999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="CA6" s="1">
-        <v>-918.912000</v>
+        <v>-918.91200000000003</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>34561.132581</v>
+        <v>34561.132580999998</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.600315</v>
+        <v>9.6003150000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1832.170000</v>
+        <v>1832.17</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1435.370000</v>
+        <v>-1435.37</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>34390.016776</v>
+        <v>34390.016775999997</v>
       </c>
       <c r="B7" s="1">
-        <v>9.552782</v>
+        <v>9.5527820000000006</v>
       </c>
       <c r="C7" s="1">
-        <v>903.068000</v>
+        <v>903.06799999999998</v>
       </c>
       <c r="D7" s="1">
-        <v>-202.570000</v>
+        <v>-202.57</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>34400.427811</v>
+        <v>34400.427811000001</v>
       </c>
       <c r="G7" s="1">
-        <v>9.555674</v>
+        <v>9.5556739999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>921.241000</v>
+        <v>921.24099999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.260000</v>
+        <v>-171.26</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>34410.879009</v>
+        <v>34410.879008999997</v>
       </c>
       <c r="L7" s="1">
-        <v>9.558578</v>
+        <v>9.5585780000000007</v>
       </c>
       <c r="M7" s="1">
-        <v>944.459000</v>
+        <v>944.45899999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.360000</v>
+        <v>-121.36</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>34421.707134</v>
+        <v>34421.707133999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.561585</v>
+        <v>9.5615849999999991</v>
       </c>
       <c r="R7" s="1">
-        <v>951.185000</v>
+        <v>951.18499999999995</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.743000</v>
+        <v>-104.74299999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>34432.271423</v>
+        <v>34432.271422999998</v>
       </c>
       <c r="V7" s="1">
-        <v>9.564520</v>
+        <v>9.5645199999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>957.880000</v>
+        <v>957.88</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.455600</v>
+        <v>-89.455600000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>34443.132353</v>
+        <v>34443.132353000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.567537</v>
+        <v>9.5675369999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>965.116000</v>
+        <v>965.11599999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.448900</v>
+        <v>-77.448899999999995</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>34453.667843</v>
+        <v>34453.667843000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.570463</v>
+        <v>9.5704630000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.775000</v>
+        <v>969.77499999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.103700</v>
+        <v>-75.103700000000003</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>34464.100725</v>
+        <v>34464.100724999997</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.573361</v>
+        <v>9.5733610000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.923000</v>
+        <v>976.923</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.706200</v>
+        <v>-79.706199999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>34474.535032</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.576260</v>
+        <v>9.5762599999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>984.997000</v>
+        <v>984.99699999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.192200</v>
+        <v>-91.1922</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>34485.559114</v>
+        <v>34485.559114000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.579322</v>
+        <v>9.5793219999999994</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.835000</v>
+        <v>994.83500000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.738000</v>
+        <v>-108.738</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>34496.388295</v>
+        <v>34496.388294999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.582330</v>
+        <v>9.5823300000000007</v>
       </c>
       <c r="BA7" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.339000</v>
+        <v>-124.339</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>34506.915885</v>
+        <v>34506.915885000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.585254</v>
+        <v>9.5852540000000008</v>
       </c>
       <c r="BF7" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.170000</v>
+        <v>-196.17</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>34517.657215</v>
+        <v>34517.657214999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.588238</v>
+        <v>9.5882380000000005</v>
       </c>
       <c r="BK7" s="1">
-        <v>1107.490000</v>
+        <v>1107.49</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.237000</v>
+        <v>-313.23700000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>34528.609909</v>
+        <v>34528.609908999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.591281</v>
+        <v>9.5912810000000004</v>
       </c>
       <c r="BP7" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-498.274000</v>
+        <v>-498.274</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>34539.022387</v>
+        <v>34539.022386999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.594173</v>
+        <v>9.5941729999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.730000</v>
+        <v>1336.73</v>
       </c>
       <c r="BV7" s="1">
-        <v>-702.022000</v>
+        <v>-702.02200000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>34550.200260</v>
+        <v>34550.200259999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.597278</v>
+        <v>9.5972779999999993</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="CA7" s="1">
-        <v>-918.916000</v>
+        <v>-918.91600000000005</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>34561.664787</v>
+        <v>34561.664787000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.600462</v>
+        <v>9.6004620000000003</v>
       </c>
       <c r="CE7" s="1">
-        <v>1831.920000</v>
+        <v>1831.92</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1434.250000</v>
+        <v>-1434.25</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>34390.347575</v>
       </c>
       <c r="B8" s="1">
-        <v>9.552874</v>
+        <v>9.5528739999999992</v>
       </c>
       <c r="C8" s="1">
-        <v>903.040000</v>
+        <v>903.04</v>
       </c>
       <c r="D8" s="1">
-        <v>-202.310000</v>
+        <v>-202.31</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>34400.772524</v>
       </c>
       <c r="G8" s="1">
-        <v>9.555770</v>
+        <v>9.5557700000000008</v>
       </c>
       <c r="H8" s="1">
-        <v>920.676000</v>
+        <v>920.67600000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.085000</v>
+        <v>-171.08500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>34411.533233</v>
+        <v>34411.533233000002</v>
       </c>
       <c r="L8" s="1">
-        <v>9.558759</v>
+        <v>9.5587590000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>944.458000</v>
+        <v>944.45799999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.337000</v>
+        <v>-121.337</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>34422.103437</v>
+        <v>34422.103436999998</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.561695</v>
+        <v>9.5616950000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>951.208000</v>
+        <v>951.20799999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.727000</v>
+        <v>-104.727</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>34432.652847</v>
+        <v>34432.652846999998</v>
       </c>
       <c r="V8" s="1">
-        <v>9.564626</v>
+        <v>9.5646260000000005</v>
       </c>
       <c r="W8" s="1">
-        <v>957.889000</v>
+        <v>957.88900000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.382000</v>
+        <v>-89.382000000000005</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>34443.481010</v>
+        <v>34443.481010000003</v>
       </c>
       <c r="AA8" s="1">
         <v>9.567634</v>
       </c>
       <c r="AB8" s="1">
-        <v>965.046000</v>
+        <v>965.04600000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.431500</v>
+        <v>-77.4315</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>34454.007634</v>
+        <v>34454.007634000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.570558</v>
+        <v>9.5705580000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.781000</v>
+        <v>969.78099999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.144700</v>
+        <v>-75.1447</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>34464.451861</v>
+        <v>34464.451861000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.573459</v>
+        <v>9.5734589999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.955000</v>
+        <v>976.95500000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.688400</v>
+        <v>-79.688400000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>34474.957128</v>
+        <v>34474.957128000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.576377</v>
+        <v>9.5763770000000008</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.000000</v>
+        <v>985</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.173800</v>
+        <v>-91.1738</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>34485.973805</v>
+        <v>34485.973805000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.579437</v>
+        <v>9.5794370000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.806000</v>
+        <v>994.80600000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.752000</v>
+        <v>-108.752</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>34496.686363</v>
+        <v>34496.686363000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.582413</v>
+        <v>9.5824130000000007</v>
       </c>
       <c r="BA8" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.348000</v>
+        <v>-124.348</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>34507.278430</v>
+        <v>34507.278429999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.585355</v>
+        <v>9.5853549999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.185000</v>
+        <v>-196.185</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>34518.056031</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.588349</v>
+        <v>9.5883489999999991</v>
       </c>
       <c r="BK8" s="1">
-        <v>1107.480000</v>
+        <v>1107.48</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.230000</v>
+        <v>-313.23</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>34529.030480</v>
+        <v>34529.030480000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.591397</v>
+        <v>9.5913970000000006</v>
       </c>
       <c r="BP8" s="1">
-        <v>1215.090000</v>
+        <v>1215.0899999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-498.299000</v>
+        <v>-498.29899999999998</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>34539.801105</v>
+        <v>34539.801104999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.594389</v>
+        <v>9.5943889999999996</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.860000</v>
+        <v>1336.86</v>
       </c>
       <c r="BV8" s="1">
-        <v>-701.976000</v>
+        <v>-701.976</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>34550.616900</v>
+        <v>34550.616900000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.597394</v>
+        <v>9.5973939999999995</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.850000</v>
+        <v>1472.85</v>
       </c>
       <c r="CA8" s="1">
-        <v>-918.904000</v>
+        <v>-918.904</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>34562.181620</v>
+        <v>34562.181620000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.600606</v>
+        <v>9.6006060000000009</v>
       </c>
       <c r="CE8" s="1">
-        <v>1832.420000</v>
+        <v>1832.42</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1434.910000</v>
+        <v>-1434.91</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>34391.021172</v>
+        <v>34391.021172000001</v>
       </c>
       <c r="B9" s="1">
-        <v>9.553061</v>
+        <v>9.5530609999999996</v>
       </c>
       <c r="C9" s="1">
-        <v>903.025000</v>
+        <v>903.02499999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-202.402000</v>
+        <v>-202.40199999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>34401.424232</v>
+        <v>34401.424231999998</v>
       </c>
       <c r="G9" s="1">
-        <v>9.555951</v>
+        <v>9.5559510000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>920.980000</v>
+        <v>920.98</v>
       </c>
       <c r="I9" s="1">
-        <v>-170.788000</v>
+        <v>-170.78800000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>34411.919579</v>
+        <v>34411.919579000001</v>
       </c>
       <c r="L9" s="1">
-        <v>9.558867</v>
+        <v>9.5588669999999993</v>
       </c>
       <c r="M9" s="1">
-        <v>944.438000</v>
+        <v>944.43799999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.274000</v>
+        <v>-121.274</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>34422.451134</v>
+        <v>34422.451134000003</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.561792</v>
+        <v>9.5617920000000005</v>
       </c>
       <c r="R9" s="1">
-        <v>951.222000</v>
+        <v>951.22199999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.775000</v>
+        <v>-104.77500000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>34432.997863</v>
+        <v>34432.997862999997</v>
       </c>
       <c r="V9" s="1">
-        <v>9.564722</v>
+        <v>9.5647219999999997</v>
       </c>
       <c r="W9" s="1">
-        <v>957.882000</v>
+        <v>957.88199999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.461000</v>
+        <v>-89.460999999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>34443.825265</v>
+        <v>34443.825264999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.567729</v>
+        <v>9.5677289999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>965.048000</v>
+        <v>965.048</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.424000</v>
+        <v>-77.424000000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>34454.351862</v>
+        <v>34454.351862000003</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.570653</v>
+        <v>9.5706530000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.786000</v>
+        <v>969.78599999999994</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.121200</v>
+        <v>-75.121200000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>34464.874454</v>
+        <v>34464.874453999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.573576</v>
+        <v>9.5735759999999992</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.935000</v>
+        <v>976.93499999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.719900</v>
+        <v>-79.719899999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>34475.255722</v>
+        <v>34475.255722000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.576460</v>
+        <v>9.5764600000000009</v>
       </c>
       <c r="AQ9" s="1">
-        <v>984.998000</v>
+        <v>984.99800000000005</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.177200</v>
+        <v>-91.177199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>34486.289721</v>
+        <v>34486.289721000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.579525</v>
+        <v>9.5795250000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.814000</v>
+        <v>994.81399999999996</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.733000</v>
+        <v>-108.733</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>34497.043980</v>
+        <v>34497.043980000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.582512</v>
+        <v>9.5825119999999995</v>
       </c>
       <c r="BA9" s="1">
-        <v>1003.080000</v>
+        <v>1003.08</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.330000</v>
+        <v>-124.33</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>34507.640509</v>
+        <v>34507.640508999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.585456</v>
+        <v>9.5854560000000006</v>
       </c>
       <c r="BF9" s="1">
-        <v>1041.360000</v>
+        <v>1041.3599999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.184000</v>
+        <v>-196.184</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>34518.430014</v>
+        <v>34518.430013999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.588453</v>
+        <v>9.5884529999999994</v>
       </c>
       <c r="BK9" s="1">
-        <v>1107.530000</v>
+        <v>1107.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.223000</v>
+        <v>-313.22300000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>34529.444176</v>
+        <v>34529.444175999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.591512</v>
+        <v>9.5915119999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-498.322000</v>
+        <v>-498.322</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>34540.320913</v>
+        <v>34540.320913000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.594534</v>
+        <v>9.5945339999999995</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.840000</v>
+        <v>1336.84</v>
       </c>
       <c r="BV9" s="1">
-        <v>-702.047000</v>
+        <v>-702.04700000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>34551.064292</v>
+        <v>34551.064292000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.597518</v>
+        <v>9.5975180000000009</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.940000</v>
+        <v>1472.94</v>
       </c>
       <c r="CA9" s="1">
-        <v>-918.986000</v>
+        <v>-918.98599999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>34562.736259</v>
+        <v>34562.736258999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.600760</v>
+        <v>9.6007599999999993</v>
       </c>
       <c r="CE9" s="1">
-        <v>1832.030000</v>
+        <v>1832.03</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1435.260000</v>
+        <v>-1435.26</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>34391.382230</v>
+        <v>34391.382230000003</v>
       </c>
       <c r="B10" s="1">
-        <v>9.553162</v>
+        <v>9.5531620000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>902.754000</v>
+        <v>902.75400000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-202.486000</v>
+        <v>-202.48599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>34401.806680</v>
+        <v>34401.806680000002</v>
       </c>
       <c r="G10" s="1">
-        <v>9.556057</v>
+        <v>9.5560569999999991</v>
       </c>
       <c r="H10" s="1">
-        <v>921.587000</v>
+        <v>921.58699999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.485000</v>
+        <v>-171.48500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>34412.261848</v>
+        <v>34412.261848000002</v>
       </c>
       <c r="L10" s="1">
-        <v>9.558962</v>
+        <v>9.5589619999999993</v>
       </c>
       <c r="M10" s="1">
-        <v>944.392000</v>
+        <v>944.39200000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.171000</v>
+        <v>-121.17100000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>34422.800842</v>
+        <v>34422.800841999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.561889</v>
+        <v>9.5618890000000007</v>
       </c>
       <c r="R10" s="1">
-        <v>951.212000</v>
+        <v>951.21199999999999</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.759000</v>
+        <v>-104.759</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>34433.348736</v>
@@ -2597,996 +3013,996 @@
         <v>9.564819</v>
       </c>
       <c r="W10" s="1">
-        <v>957.888000</v>
+        <v>957.88800000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.383500</v>
+        <v>-89.383499999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>34444.248322</v>
+        <v>34444.248321999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.567847</v>
+        <v>9.5678470000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>965.040000</v>
+        <v>965.04</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.468200</v>
+        <v>-77.468199999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>34454.793763</v>
+        <v>34454.793763000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.570776</v>
+        <v>9.5707760000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.781000</v>
+        <v>969.78099999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.138400</v>
+        <v>-75.138400000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>34465.156182</v>
+        <v>34465.156181999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.573654</v>
+        <v>9.5736539999999994</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.931000</v>
+        <v>976.93100000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.719100</v>
+        <v>-79.719099999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>34475.616807</v>
+        <v>34475.616806999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.576560</v>
+        <v>9.5765600000000006</v>
       </c>
       <c r="AQ10" s="1">
-        <v>984.999000</v>
+        <v>984.99900000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.183300</v>
+        <v>-91.183300000000003</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>34486.650344</v>
+        <v>34486.650344000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.579625</v>
+        <v>9.5796250000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.844000</v>
+        <v>994.84400000000005</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.740000</v>
+        <v>-108.74</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>34497.406059</v>
+        <v>34497.406059000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.582613</v>
+        <v>9.5826130000000003</v>
       </c>
       <c r="BA10" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.328000</v>
+        <v>-124.328</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>34508.364171</v>
+        <v>34508.364171000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.585657</v>
+        <v>9.5856569999999994</v>
       </c>
       <c r="BF10" s="1">
-        <v>1041.370000</v>
+        <v>1041.3699999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.188000</v>
+        <v>-196.18799999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>34519.178973</v>
+        <v>34519.178973000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.588661</v>
+        <v>9.5886610000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1107.470000</v>
+        <v>1107.47</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.226000</v>
+        <v>-313.226</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>34529.850367</v>
+        <v>34529.850366999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.591625</v>
+        <v>9.5916250000000005</v>
       </c>
       <c r="BP10" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-498.313000</v>
+        <v>-498.31299999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>34540.752930</v>
+        <v>34540.752930000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.594654</v>
+        <v>9.5946540000000002</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.860000</v>
+        <v>1336.86</v>
       </c>
       <c r="BV10" s="1">
-        <v>-702.023000</v>
+        <v>-702.02300000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>34551.485858</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.597635</v>
+        <v>9.5976350000000004</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.890000</v>
+        <v>1472.89</v>
       </c>
       <c r="CA10" s="1">
-        <v>-918.961000</v>
+        <v>-918.96100000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>34563.572371</v>
+        <v>34563.572371000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.600992</v>
+        <v>9.6009919999999997</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.640000</v>
+        <v>1831.64</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1434.450000</v>
+        <v>-1434.45</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>34391.725461</v>
+        <v>34391.725461000002</v>
       </c>
       <c r="B11" s="1">
-        <v>9.553257</v>
+        <v>9.5532570000000003</v>
       </c>
       <c r="C11" s="1">
-        <v>903.062000</v>
+        <v>903.06200000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-202.327000</v>
+        <v>-202.327</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>34402.154840</v>
+        <v>34402.154840000003</v>
       </c>
       <c r="G11" s="1">
-        <v>9.556154</v>
+        <v>9.5561539999999994</v>
       </c>
       <c r="H11" s="1">
-        <v>920.836000</v>
+        <v>920.83600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.317000</v>
+        <v>-171.31700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>34412.609017</v>
+        <v>34412.609017000002</v>
       </c>
       <c r="L11" s="1">
-        <v>9.559058</v>
+        <v>9.5590580000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>944.464000</v>
+        <v>944.46400000000006</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.220000</v>
+        <v>-121.22</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>34423.216957</v>
+        <v>34423.216956999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.562005</v>
+        <v>9.5620049999999992</v>
       </c>
       <c r="R11" s="1">
-        <v>951.187000</v>
+        <v>951.18700000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.757000</v>
+        <v>-104.75700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>34433.771854</v>
+        <v>34433.771853999999</v>
       </c>
       <c r="V11" s="1">
-        <v>9.564937</v>
+        <v>9.5649370000000005</v>
       </c>
       <c r="W11" s="1">
-        <v>957.919000</v>
+        <v>957.91899999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.463400</v>
+        <v>-89.463399999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>34444.529566</v>
+        <v>34444.529565999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.567925</v>
+        <v>9.5679250000000007</v>
       </c>
       <c r="AB11" s="1">
-        <v>965.032000</v>
+        <v>965.03200000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.534000</v>
+        <v>-77.534000000000006</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>34455.062594</v>
+        <v>34455.062594000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.570851</v>
+        <v>9.5708509999999993</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.782000</v>
+        <v>969.78200000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.151900</v>
+        <v>-75.151899999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>34465.501428</v>
+        <v>34465.501428000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.573750</v>
+        <v>9.5737500000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.923000</v>
+        <v>976.923</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.718300</v>
+        <v>-79.718299999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>34475.976438</v>
+        <v>34475.976437999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.576660</v>
+        <v>9.5766600000000004</v>
       </c>
       <c r="AQ11" s="1">
-        <v>984.983000</v>
+        <v>984.98299999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.189700</v>
+        <v>-91.189700000000002</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>34487.017849</v>
+        <v>34487.017849000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.579727</v>
+        <v>9.5797270000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.834000</v>
+        <v>994.83399999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.728000</v>
+        <v>-108.72799999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>34498.122281</v>
+        <v>34498.122281000004</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.582812</v>
+        <v>9.5828120000000006</v>
       </c>
       <c r="BA11" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.324000</v>
+        <v>-124.324</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>34508.722780</v>
+        <v>34508.722779999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.585756</v>
+        <v>9.5857559999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1041.370000</v>
+        <v>1041.3699999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.175000</v>
+        <v>-196.17500000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>34519.554908</v>
+        <v>34519.554907999998</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.588765</v>
+        <v>9.5887650000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1107.480000</v>
+        <v>1107.48</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.216000</v>
+        <v>-313.21600000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>34530.248691</v>
+        <v>34530.248691000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.591736</v>
+        <v>9.5917359999999992</v>
       </c>
       <c r="BP11" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-498.269000</v>
+        <v>-498.26900000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>34541.473121</v>
+        <v>34541.473121000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.594854</v>
+        <v>9.5948539999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.820000</v>
+        <v>1336.82</v>
       </c>
       <c r="BV11" s="1">
-        <v>-701.982000</v>
+        <v>-701.98199999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>34552.218946</v>
+        <v>34552.218946000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.597839</v>
+        <v>9.5978390000000005</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.910000</v>
+        <v>1472.91</v>
       </c>
       <c r="CA11" s="1">
-        <v>-918.934000</v>
+        <v>-918.93399999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>34563.815410</v>
+        <v>34563.815410000003</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.601060</v>
+        <v>9.6010600000000004</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.660000</v>
+        <v>1830.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1435.200000</v>
+        <v>-1435.2</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>34392.066246</v>
+        <v>34392.066246000002</v>
       </c>
       <c r="B12" s="1">
-        <v>9.553352</v>
+        <v>9.5533520000000003</v>
       </c>
       <c r="C12" s="1">
-        <v>903.041000</v>
+        <v>903.04100000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.281000</v>
+        <v>-202.28100000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>34402.502039</v>
+        <v>34402.502038999999</v>
       </c>
       <c r="G12" s="1">
-        <v>9.556251</v>
+        <v>9.5562509999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>921.083000</v>
+        <v>921.08299999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.238000</v>
+        <v>-171.238</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>34413.024169</v>
+        <v>34413.024168999997</v>
       </c>
       <c r="L12" s="1">
-        <v>9.559173</v>
+        <v>9.5591729999999995</v>
       </c>
       <c r="M12" s="1">
-        <v>944.449000</v>
+        <v>944.44899999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.170000</v>
+        <v>-121.17</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>34423.512606</v>
+        <v>34423.512605999997</v>
       </c>
       <c r="Q12" s="1">
         <v>9.562087</v>
       </c>
       <c r="R12" s="1">
-        <v>951.225000</v>
+        <v>951.22500000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.714000</v>
+        <v>-104.714</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>34434.051600</v>
+        <v>34434.051599999999</v>
       </c>
       <c r="V12" s="1">
-        <v>9.565014</v>
+        <v>9.5650139999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>957.958000</v>
+        <v>957.95799999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.449700</v>
+        <v>-89.449700000000007</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>34444.880295</v>
+        <v>34444.880295000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.568022</v>
+        <v>9.5680219999999991</v>
       </c>
       <c r="AB12" s="1">
-        <v>965.022000</v>
+        <v>965.02200000000005</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.493000</v>
+        <v>-77.492999999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>34455.404337</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.570946</v>
+        <v>9.5709459999999993</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.741000</v>
+        <v>969.74099999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.133500</v>
+        <v>-75.133499999999998</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>34465.850083</v>
+        <v>34465.850082999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.573847</v>
+        <v>9.5738470000000007</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.917000</v>
+        <v>976.91700000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.722900</v>
+        <v>-79.722899999999996</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>34476.696103</v>
+        <v>34476.696103000002</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.576860</v>
+        <v>9.5768599999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.016000</v>
+        <v>985.01599999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.188800</v>
+        <v>-91.188800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>34487.746967</v>
+        <v>34487.746966999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.579930</v>
+        <v>9.5799299999999992</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.825000</v>
+        <v>994.82500000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.725000</v>
+        <v>-108.72499999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>34498.482408</v>
+        <v>34498.482408000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.582912</v>
+        <v>9.5829120000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.337000</v>
+        <v>-124.337</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>34509.082876</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.585856</v>
+        <v>9.5858559999999997</v>
       </c>
       <c r="BF12" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.187000</v>
+        <v>-196.18700000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>34519.933852</v>
+        <v>34519.933852000002</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.588871</v>
+        <v>9.5888709999999993</v>
       </c>
       <c r="BK12" s="1">
-        <v>1107.500000</v>
+        <v>1107.5</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.217000</v>
+        <v>-313.21699999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>34530.972814</v>
+        <v>34530.972814000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.591937</v>
+        <v>9.5919369999999997</v>
       </c>
       <c r="BP12" s="1">
-        <v>1215.090000</v>
+        <v>1215.0899999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-498.341000</v>
+        <v>-498.34100000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>34541.594673</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.594887</v>
+        <v>9.5948869999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.880000</v>
+        <v>1336.88</v>
       </c>
       <c r="BV12" s="1">
-        <v>-702.041000</v>
+        <v>-702.04100000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>34552.391057</v>
+        <v>34552.391057000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.597886</v>
+        <v>9.5978860000000008</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.850000</v>
+        <v>1472.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-918.936000</v>
+        <v>-918.93600000000004</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>34564.348609</v>
+        <v>34564.348609000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.601208</v>
+        <v>9.6012079999999997</v>
       </c>
       <c r="CE12" s="1">
-        <v>1832.240000</v>
+        <v>1832.24</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1435.470000</v>
+        <v>-1435.47</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>34392.491782</v>
+        <v>34392.491781999997</v>
       </c>
       <c r="B13" s="1">
-        <v>9.553470</v>
+        <v>9.5534700000000008</v>
       </c>
       <c r="C13" s="1">
-        <v>903.029000</v>
+        <v>903.029</v>
       </c>
       <c r="D13" s="1">
-        <v>-202.462000</v>
+        <v>-202.46199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>34402.924668</v>
       </c>
       <c r="G13" s="1">
-        <v>9.556368</v>
+        <v>9.5563680000000009</v>
       </c>
       <c r="H13" s="1">
-        <v>921.662000</v>
+        <v>921.66200000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-170.773000</v>
+        <v>-170.773</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>34413.304906</v>
+        <v>34413.304905999998</v>
       </c>
       <c r="L13" s="1">
-        <v>9.559251</v>
+        <v>9.5592509999999997</v>
       </c>
       <c r="M13" s="1">
-        <v>944.451000</v>
+        <v>944.45100000000002</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.315000</v>
+        <v>-121.315</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>34423.859276</v>
+        <v>34423.859276000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.562183</v>
+        <v>9.5621829999999992</v>
       </c>
       <c r="R13" s="1">
-        <v>951.221000</v>
+        <v>951.221</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.719000</v>
+        <v>-104.71899999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>34434.393805</v>
       </c>
       <c r="V13" s="1">
-        <v>9.565109</v>
+        <v>9.5651089999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>957.942000</v>
+        <v>957.94200000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.422200</v>
+        <v>-89.422200000000004</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>34445.223985</v>
+        <v>34445.223984999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.568118</v>
+        <v>9.5681180000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>965.035000</v>
+        <v>965.03499999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.530900</v>
+        <v>-77.530900000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>34456.093313</v>
+        <v>34456.093312999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.571137</v>
+        <v>9.5711370000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.775000</v>
+        <v>969.77499999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.157600</v>
+        <v>-75.157600000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>34466.548450</v>
+        <v>34466.548450000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.574041</v>
+        <v>9.5740409999999994</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.916000</v>
+        <v>976.91600000000005</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.703400</v>
+        <v>-79.703400000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>34477.086485</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.576968</v>
+        <v>9.5769680000000008</v>
       </c>
       <c r="AQ13" s="1">
-        <v>984.999000</v>
+        <v>984.99900000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.212200</v>
+        <v>-91.212199999999996</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>34488.138342</v>
+        <v>34488.138341999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.580038</v>
+        <v>9.5800380000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.819000</v>
+        <v>994.81899999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.727000</v>
+        <v>-108.727</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>34498.838007</v>
+        <v>34498.838006999998</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.583011</v>
+        <v>9.5830110000000008</v>
       </c>
       <c r="BA13" s="1">
-        <v>1003.040000</v>
+        <v>1003.04</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.329000</v>
+        <v>-124.32899999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>34509.749002</v>
+        <v>34509.749001999997</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.586041</v>
+        <v>9.5860409999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1041.370000</v>
+        <v>1041.3699999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.173000</v>
+        <v>-196.173</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>34520.640193</v>
+        <v>34520.640192999999</v>
       </c>
       <c r="BJ13" s="1">
         <v>9.589067</v>
       </c>
       <c r="BK13" s="1">
-        <v>1107.500000</v>
+        <v>1107.5</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.230000</v>
+        <v>-313.23</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>34531.092846</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.591970</v>
+        <v>9.5919699999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1215.130000</v>
+        <v>1215.1300000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-498.305000</v>
+        <v>-498.30500000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>34542.033635</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.595009</v>
+        <v>9.5950089999999992</v>
       </c>
       <c r="BU13" s="1">
-        <v>1336.840000</v>
+        <v>1336.84</v>
       </c>
       <c r="BV13" s="1">
-        <v>-701.986000</v>
+        <v>-701.98599999999999</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>34552.814642</v>
+        <v>34552.814641999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.598004</v>
+        <v>9.5980039999999995</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.860000</v>
+        <v>1472.86</v>
       </c>
       <c r="CA13" s="1">
-        <v>-918.890000</v>
+        <v>-918.89</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>34564.889744</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.601358</v>
+        <v>9.6013579999999994</v>
       </c>
       <c r="CE13" s="1">
-        <v>1831.280000</v>
+        <v>1831.28</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1434.100000</v>
+        <v>-1434.1</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>34392.765076</v>
+        <v>34392.765076000003</v>
       </c>
       <c r="B14" s="1">
-        <v>9.553546</v>
+        <v>9.5535460000000008</v>
       </c>
       <c r="C14" s="1">
-        <v>903.181000</v>
+        <v>903.18100000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-202.400000</v>
+        <v>-202.4</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>34403.195446</v>
+        <v>34403.195445999998</v>
       </c>
       <c r="G14" s="1">
-        <v>9.556443</v>
+        <v>9.5564429999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>920.683000</v>
+        <v>920.68299999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.247000</v>
+        <v>-171.24700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>34413.651608</v>
@@ -3595,405 +4011,405 @@
         <v>9.559348</v>
       </c>
       <c r="M14" s="1">
-        <v>944.419000</v>
+        <v>944.41899999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.164000</v>
+        <v>-121.164</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>34424.207994</v>
+        <v>34424.207993999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.562280</v>
+        <v>9.5622799999999994</v>
       </c>
       <c r="R14" s="1">
-        <v>951.259000</v>
+        <v>951.25900000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.771000</v>
+        <v>-104.771</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>34434.737069</v>
+        <v>34434.737069000003</v>
       </c>
       <c r="V14" s="1">
-        <v>9.565205</v>
+        <v>9.5652050000000006</v>
       </c>
       <c r="W14" s="1">
-        <v>957.924000</v>
+        <v>957.92399999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.389500</v>
+        <v>-89.389499999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>34445.923310</v>
+        <v>34445.923309999998</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.568312</v>
+        <v>9.5683120000000006</v>
       </c>
       <c r="AB14" s="1">
-        <v>965.035000</v>
+        <v>965.03499999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.530200</v>
+        <v>-77.530199999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>34456.435025</v>
+        <v>34456.435024999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.571232</v>
+        <v>9.5712320000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.781000</v>
+        <v>969.78099999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.125100</v>
+        <v>-75.125100000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>34466.897666</v>
+        <v>34466.897665999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.574138</v>
+        <v>9.5741379999999996</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.938000</v>
+        <v>976.93799999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.722900</v>
+        <v>-79.722899999999996</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>34477.445060</v>
+        <v>34477.445059999998</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.577068</v>
+        <v>9.5770680000000006</v>
       </c>
       <c r="AQ14" s="1">
-        <v>984.987000</v>
+        <v>984.98699999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.207800</v>
+        <v>-91.207800000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>34488.586730</v>
+        <v>34488.586730000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.580163</v>
+        <v>9.5801630000000007</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.829000</v>
+        <v>994.82899999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.726000</v>
+        <v>-108.726</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>34499.520503</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.583200</v>
+        <v>9.5831999999999997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.346000</v>
+        <v>-124.346</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>34510.191432</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.586164</v>
+        <v>9.5861640000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1041.380000</v>
+        <v>1041.3800000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.191000</v>
+        <v>-196.191</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>34521.083578</v>
+        <v>34521.083577999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.589190</v>
+        <v>9.5891900000000003</v>
       </c>
       <c r="BK14" s="1">
-        <v>1107.510000</v>
+        <v>1107.51</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.206000</v>
+        <v>-313.20600000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>34531.489150</v>
+        <v>34531.489150000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.592080</v>
+        <v>9.5920799999999993</v>
       </c>
       <c r="BP14" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-498.307000</v>
+        <v>-498.30700000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>34542.462178</v>
+        <v>34542.462178000002</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.595128</v>
+        <v>9.5951280000000008</v>
       </c>
       <c r="BU14" s="1">
-        <v>1336.890000</v>
+        <v>1336.89</v>
       </c>
       <c r="BV14" s="1">
-        <v>-702.006000</v>
+        <v>-702.00599999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>34553.232803</v>
+        <v>34553.232802999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.598120</v>
+        <v>9.5981199999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.890000</v>
+        <v>1472.89</v>
       </c>
       <c r="CA14" s="1">
-        <v>-918.898000</v>
+        <v>-918.89800000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>34565.429392</v>
+        <v>34565.429391999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.601508</v>
+        <v>9.6015080000000008</v>
       </c>
       <c r="CE14" s="1">
-        <v>1830.830000</v>
+        <v>1830.83</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1435.960000</v>
+        <v>-1435.96</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>34393.106325</v>
+        <v>34393.106325000001</v>
       </c>
       <c r="B15" s="1">
-        <v>9.553641</v>
+        <v>9.5536410000000007</v>
       </c>
       <c r="C15" s="1">
-        <v>903.162000</v>
+        <v>903.16200000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-202.268000</v>
+        <v>-202.268</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>34403.538679</v>
+        <v>34403.538678999998</v>
       </c>
       <c r="G15" s="1">
-        <v>9.556539</v>
+        <v>9.5565390000000008</v>
       </c>
       <c r="H15" s="1">
-        <v>921.019000</v>
+        <v>921.01900000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.472000</v>
+        <v>-171.47200000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>34413.998809</v>
+        <v>34413.998808999997</v>
       </c>
       <c r="L15" s="1">
-        <v>9.559444</v>
+        <v>9.5594439999999992</v>
       </c>
       <c r="M15" s="1">
-        <v>944.445000</v>
+        <v>944.44500000000005</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.731000</v>
+        <v>-121.73099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>34424.906330</v>
+        <v>34424.906329999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.562474</v>
+        <v>9.5624739999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>951.246000</v>
+        <v>951.24599999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.766000</v>
+        <v>-104.76600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>34435.425979</v>
       </c>
       <c r="V15" s="1">
-        <v>9.565396</v>
+        <v>9.5653959999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>957.911000</v>
+        <v>957.91099999999994</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.303000</v>
+        <v>-89.302999999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>34446.272525</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.568409</v>
+        <v>9.5684090000000008</v>
       </c>
       <c r="AB15" s="1">
-        <v>965.066000</v>
+        <v>965.06600000000003</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.419200</v>
+        <v>-77.419200000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>34456.779041</v>
+        <v>34456.779041000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.571328</v>
+        <v>9.5713279999999994</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.784000</v>
+        <v>969.78399999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.172500</v>
+        <v>-75.172499999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>34467.246850</v>
+        <v>34467.246850000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.574235</v>
+        <v>9.5742349999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.921000</v>
+        <v>976.92100000000005</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.713400</v>
+        <v>-79.713399999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>34478.113203</v>
+        <v>34478.113203000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.577254</v>
+        <v>9.5772539999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>984.974000</v>
+        <v>984.97400000000005</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.223900</v>
+        <v>-91.2239</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>34489.038581</v>
+        <v>34489.038581000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.580288</v>
+        <v>9.5802879999999995</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.819000</v>
+        <v>994.81899999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.727000</v>
+        <v>-108.727</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>34499.915319</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.583310</v>
+        <v>9.5833100000000009</v>
       </c>
       <c r="BA15" s="1">
-        <v>1003.070000</v>
+        <v>1003.07</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.339000</v>
+        <v>-124.339</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>34510.555498</v>
+        <v>34510.555498000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.586265</v>
+        <v>9.5862649999999991</v>
       </c>
       <c r="BF15" s="1">
-        <v>1041.400000</v>
+        <v>1041.4000000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.182000</v>
+        <v>-196.18199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>34521.485836</v>
@@ -4002,664 +4418,664 @@
         <v>9.589302</v>
       </c>
       <c r="BK15" s="1">
-        <v>1107.520000</v>
+        <v>1107.52</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.226000</v>
+        <v>-313.226</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>34531.910748</v>
+        <v>34531.910748000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.592197</v>
+        <v>9.5921970000000005</v>
       </c>
       <c r="BP15" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-498.322000</v>
+        <v>-498.322</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>34542.874319</v>
+        <v>34542.874319000002</v>
       </c>
       <c r="BT15" s="1">
         <v>9.595243</v>
       </c>
       <c r="BU15" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-701.994000</v>
+        <v>-701.99400000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>34553.679169</v>
+        <v>34553.679169000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.598244</v>
+        <v>9.5982439999999993</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.880000</v>
+        <v>1472.88</v>
       </c>
       <c r="CA15" s="1">
-        <v>-918.981000</v>
+        <v>-918.98099999999999</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>34565.968553</v>
+        <v>34565.968552999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.601658</v>
+        <v>9.6016580000000005</v>
       </c>
       <c r="CE15" s="1">
-        <v>1832.450000</v>
+        <v>1832.45</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1434.620000</v>
+        <v>-1434.62</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>34393.451387</v>
+        <v>34393.451387000001</v>
       </c>
       <c r="B16" s="1">
-        <v>9.553736</v>
+        <v>9.5537360000000007</v>
       </c>
       <c r="C16" s="1">
-        <v>903.016000</v>
+        <v>903.01599999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.387000</v>
+        <v>-202.387</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>34404.217713</v>
+        <v>34404.217712999998</v>
       </c>
       <c r="G16" s="1">
-        <v>9.556727</v>
+        <v>9.5567270000000004</v>
       </c>
       <c r="H16" s="1">
-        <v>920.839000</v>
+        <v>920.83900000000006</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.220000</v>
+        <v>-171.22</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>34414.690727</v>
+        <v>34414.690727000001</v>
       </c>
       <c r="L16" s="1">
-        <v>9.559636</v>
+        <v>9.5596359999999994</v>
       </c>
       <c r="M16" s="1">
-        <v>944.215000</v>
+        <v>944.21500000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.236000</v>
+        <v>-121.236</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>34425.254522</v>
+        <v>34425.254522000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.562571</v>
+        <v>9.5625710000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>951.208000</v>
+        <v>951.20799999999997</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.782000</v>
+        <v>-104.782</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>34435.769213</v>
       </c>
       <c r="V16" s="1">
-        <v>9.565491</v>
+        <v>9.5654909999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>957.869000</v>
+        <v>957.86900000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.396500</v>
+        <v>-89.396500000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>34446.621181</v>
+        <v>34446.621181000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.568506</v>
+        <v>9.5685059999999993</v>
       </c>
       <c r="AB16" s="1">
-        <v>965.075000</v>
+        <v>965.07500000000005</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.531700</v>
+        <v>-77.531700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>34457.428513</v>
+        <v>34457.428512999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.571508</v>
+        <v>9.5715079999999997</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.753000</v>
+        <v>969.75300000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.127600</v>
+        <v>-75.127600000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>34467.913440</v>
+        <v>34467.913439999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.574420</v>
+        <v>9.5744199999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.947000</v>
+        <v>976.947</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.713100</v>
+        <v>-79.713099999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>34478.552664</v>
+        <v>34478.552664000003</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.577376</v>
+        <v>9.5773759999999992</v>
       </c>
       <c r="AQ16" s="1">
-        <v>984.995000</v>
+        <v>984.995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.268300</v>
+        <v>-91.268299999999996</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>34489.231493</v>
+        <v>34489.231492999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.580342</v>
+        <v>9.5803419999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.819000</v>
+        <v>994.81899999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.752000</v>
+        <v>-108.752</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>34500.299718</v>
+        <v>34500.299718000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.583417</v>
+        <v>9.5834170000000007</v>
       </c>
       <c r="BA16" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.337000</v>
+        <v>-124.337</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>34510.913144</v>
+        <v>34510.913143999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.586365</v>
+        <v>9.5863650000000007</v>
       </c>
       <c r="BF16" s="1">
-        <v>1041.380000</v>
+        <v>1041.3800000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.170000</v>
+        <v>-196.17</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>34521.859849</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.589406</v>
+        <v>9.5894060000000003</v>
       </c>
       <c r="BK16" s="1">
-        <v>1107.490000</v>
+        <v>1107.49</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.223000</v>
+        <v>-313.22300000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>34532.343291</v>
+        <v>34532.343290999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.592318</v>
+        <v>9.5923180000000006</v>
       </c>
       <c r="BP16" s="1">
-        <v>1215.070000</v>
+        <v>1215.07</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-498.299000</v>
+        <v>-498.29899999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>34543.305356</v>
+        <v>34543.305355999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.595363</v>
+        <v>9.5953630000000008</v>
       </c>
       <c r="BU16" s="1">
-        <v>1336.930000</v>
+        <v>1336.93</v>
       </c>
       <c r="BV16" s="1">
-        <v>-702.015000</v>
+        <v>-702.01499999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>34554.100768</v>
+        <v>34554.100767999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.598361</v>
+        <v>9.5983610000000006</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.950000</v>
+        <v>1472.95</v>
       </c>
       <c r="CA16" s="1">
-        <v>-918.900000</v>
+        <v>-918.9</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>34566.506207</v>
+        <v>34566.506206999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.601807</v>
+        <v>9.6018070000000009</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.890000</v>
+        <v>1830.89</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1434.750000</v>
+        <v>-1434.75</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>34394.131554</v>
       </c>
       <c r="B17" s="1">
-        <v>9.553925</v>
+        <v>9.5539249999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>903.053000</v>
+        <v>903.053</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.332000</v>
+        <v>-202.33199999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>34404.586228</v>
       </c>
       <c r="G17" s="1">
-        <v>9.556830</v>
+        <v>9.5568299999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>921.309000</v>
+        <v>921.30899999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.088000</v>
+        <v>-171.08799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>34415.038422</v>
+        <v>34415.038421999998</v>
       </c>
       <c r="L17" s="1">
-        <v>9.559733</v>
+        <v>9.5597329999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>944.438000</v>
+        <v>944.43799999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.259000</v>
+        <v>-121.259</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>34425.602712</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.562667</v>
+        <v>9.5626669999999994</v>
       </c>
       <c r="R17" s="1">
-        <v>951.188000</v>
+        <v>951.18799999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.782000</v>
+        <v>-104.782</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>34436.112444</v>
+        <v>34436.112443999999</v>
       </c>
       <c r="V17" s="1">
-        <v>9.565587</v>
+        <v>9.5655870000000007</v>
       </c>
       <c r="W17" s="1">
-        <v>957.941000</v>
+        <v>957.94100000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.373900</v>
+        <v>-89.373900000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>34447.272956</v>
+        <v>34447.272956000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.568687</v>
+        <v>9.5686870000000006</v>
       </c>
       <c r="AB17" s="1">
-        <v>965.069000</v>
+        <v>965.06899999999996</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.549600</v>
+        <v>-77.549599999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>34457.808942</v>
+        <v>34457.808942000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.571614</v>
+        <v>9.5716140000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.714000</v>
+        <v>969.71400000000006</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.103900</v>
+        <v>-75.103899999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>34468.289904</v>
+        <v>34468.289903999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.574525</v>
+        <v>9.5745249999999995</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.929000</v>
+        <v>976.92899999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.730000</v>
+        <v>-79.73</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>34478.914211</v>
+        <v>34478.914211000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.577476</v>
+        <v>9.5774760000000008</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.020000</v>
+        <v>985.02</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.298000</v>
+        <v>-91.298000000000002</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>34489.596548</v>
+        <v>34489.596548000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.580443</v>
+        <v>9.5804430000000007</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.815000</v>
+        <v>994.81500000000005</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.723000</v>
+        <v>-108.723</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>34500.660353</v>
+        <v>34500.660352999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.583517</v>
+        <v>9.5835170000000005</v>
       </c>
       <c r="BA17" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.335000</v>
+        <v>-124.33499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>34511.336201</v>
+        <v>34511.336200999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.586482</v>
+        <v>9.5864820000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1041.360000</v>
+        <v>1041.3599999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.176000</v>
+        <v>-196.17599999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>34522.315642</v>
+        <v>34522.315642000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.589532</v>
+        <v>9.5895320000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1107.490000</v>
+        <v>1107.49</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.242000</v>
+        <v>-313.24200000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>34532.731133</v>
+        <v>34532.731133000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.592425</v>
+        <v>9.5924250000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-498.297000</v>
+        <v>-498.29700000000003</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>34543.733885</v>
+        <v>34543.733885000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.595482</v>
+        <v>9.5954820000000005</v>
       </c>
       <c r="BU17" s="1">
-        <v>1336.820000</v>
+        <v>1336.82</v>
       </c>
       <c r="BV17" s="1">
-        <v>-702.017000</v>
+        <v>-702.01700000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>34554.524350</v>
+        <v>34554.52435</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.598479</v>
+        <v>9.5984789999999993</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.860000</v>
+        <v>1472.86</v>
       </c>
       <c r="CA17" s="1">
-        <v>-918.964000</v>
+        <v>-918.96400000000006</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>34567.048862</v>
+        <v>34567.048862000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.601958</v>
+        <v>9.6019579999999998</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.980000</v>
+        <v>1831.98</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1435.600000</v>
+        <v>-1435.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>34394.460930</v>
+        <v>34394.460930000001</v>
       </c>
       <c r="B18" s="1">
         <v>9.554017</v>
       </c>
       <c r="C18" s="1">
-        <v>903.016000</v>
+        <v>903.01599999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-202.356000</v>
+        <v>-202.35599999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>34404.935448</v>
+        <v>34404.935447999997</v>
       </c>
       <c r="G18" s="1">
-        <v>9.556927</v>
+        <v>9.5569269999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>920.698000</v>
+        <v>920.69799999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-170.976000</v>
+        <v>-170.976</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>34415.382150</v>
+        <v>34415.382149999998</v>
       </c>
       <c r="L18" s="1">
-        <v>9.559828</v>
+        <v>9.5598279999999995</v>
       </c>
       <c r="M18" s="1">
-        <v>944.233000</v>
+        <v>944.23299999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.243000</v>
+        <v>-121.24299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>34426.259416</v>
+        <v>34426.259416000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.562850</v>
+        <v>9.5628499999999992</v>
       </c>
       <c r="R18" s="1">
-        <v>951.222000</v>
+        <v>951.22199999999998</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.705000</v>
+        <v>-104.705</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>34436.765177</v>
+        <v>34436.765177000001</v>
       </c>
       <c r="V18" s="1">
-        <v>9.565768</v>
+        <v>9.5657680000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>957.902000</v>
+        <v>957.90200000000004</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.327100</v>
+        <v>-89.327100000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>34447.667771</v>
@@ -4668,73 +5084,73 @@
         <v>9.568797</v>
       </c>
       <c r="AB18" s="1">
-        <v>965.180000</v>
+        <v>965.18</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.431400</v>
+        <v>-77.431399999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>34458.152174</v>
+        <v>34458.152174000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.571709</v>
+        <v>9.5717090000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.773000</v>
+        <v>969.77300000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.143100</v>
+        <v>-75.143100000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>34468.638624</v>
+        <v>34468.638623999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.574622</v>
+        <v>9.5746219999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.924000</v>
+        <v>976.92399999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.695400</v>
+        <v>-79.695400000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>34479.273809</v>
+        <v>34479.273808999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.577576</v>
+        <v>9.5775760000000005</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.030000</v>
+        <v>985.03</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.269500</v>
+        <v>-91.269499999999994</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>34490.017157</v>
+        <v>34490.017157000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.580560</v>
+        <v>9.5805600000000002</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.830000</v>
+        <v>994.83</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.746000</v>
+        <v>-108.746</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>34501.081909</v>
@@ -4743,225 +5159,225 @@
         <v>9.583634</v>
       </c>
       <c r="BA18" s="1">
-        <v>1003.050000</v>
+        <v>1003.05</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.339000</v>
+        <v>-124.339</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>34511.639255</v>
+        <v>34511.639255000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.586566</v>
+        <v>9.5865659999999995</v>
       </c>
       <c r="BF18" s="1">
-        <v>1041.370000</v>
+        <v>1041.3699999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.181000</v>
+        <v>-196.18100000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>34522.663870</v>
+        <v>34522.663869999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.589629</v>
+        <v>9.5896290000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1107.500000</v>
+        <v>1107.5</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.242000</v>
+        <v>-313.24200000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>34533.128924</v>
+        <v>34533.128923999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.592536</v>
+        <v>9.5925360000000008</v>
       </c>
       <c r="BP18" s="1">
-        <v>1215.140000</v>
+        <v>1215.1400000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-498.327000</v>
+        <v>-498.327</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>34544.144078</v>
+        <v>34544.144077999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.595596</v>
+        <v>9.5955960000000005</v>
       </c>
       <c r="BU18" s="1">
-        <v>1336.840000</v>
+        <v>1336.84</v>
       </c>
       <c r="BV18" s="1">
-        <v>-702.045000</v>
+        <v>-702.04499999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>34554.973230</v>
+        <v>34554.973230000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.598604</v>
+        <v>9.5986039999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="CA18" s="1">
-        <v>-918.937000</v>
+        <v>-918.93700000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>34567.587485</v>
+        <v>34567.587484999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.602108</v>
+        <v>9.6021079999999994</v>
       </c>
       <c r="CE18" s="1">
-        <v>1831.490000</v>
+        <v>1831.49</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1434.310000</v>
+        <v>-1434.31</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>34394.817883</v>
+        <v>34394.817883000003</v>
       </c>
       <c r="B19" s="1">
-        <v>9.554116</v>
+        <v>9.5541160000000005</v>
       </c>
       <c r="C19" s="1">
-        <v>902.973000</v>
+        <v>902.97299999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.357000</v>
+        <v>-202.357</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>34405.602563</v>
       </c>
       <c r="G19" s="1">
-        <v>9.557112</v>
+        <v>9.5571120000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>920.951000</v>
+        <v>920.95100000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-171.500000</v>
+        <v>-171.5</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>34416.033398</v>
       </c>
       <c r="L19" s="1">
-        <v>9.560009</v>
+        <v>9.5600090000000009</v>
       </c>
       <c r="M19" s="1">
-        <v>944.326000</v>
+        <v>944.32600000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.290000</v>
+        <v>-121.29</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>34426.647815</v>
+        <v>34426.647814999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.562958</v>
+        <v>9.5629580000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>951.271000</v>
+        <v>951.27099999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.733000</v>
+        <v>-104.733</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>34437.144618</v>
+        <v>34437.144617999998</v>
       </c>
       <c r="V19" s="1">
-        <v>9.565874</v>
+        <v>9.5658740000000009</v>
       </c>
       <c r="W19" s="1">
-        <v>957.936000</v>
+        <v>957.93600000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.349300</v>
+        <v>-89.349299999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>34448.015931</v>
+        <v>34448.015931000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.568893</v>
+        <v>9.5688929999999992</v>
       </c>
       <c r="AB19" s="1">
-        <v>965.030000</v>
+        <v>965.03</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.411000</v>
+        <v>-77.411000000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>34458.492959</v>
+        <v>34458.492959000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.571804</v>
+        <v>9.5718040000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.748000</v>
+        <v>969.74800000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.117300</v>
+        <v>-75.1173</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>34468.988767</v>
+        <v>34468.988767000003</v>
       </c>
       <c r="AK19" s="1">
         <v>9.574719</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.941000</v>
+        <v>976.94100000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.742800</v>
+        <v>-79.742800000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>34479.695409</v>
@@ -4970,345 +5386,345 @@
         <v>9.577693</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.005000</v>
+        <v>985.005</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.300900</v>
+        <v>-91.300899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>34490.325237</v>
+        <v>34490.325236999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.580646</v>
+        <v>9.5806459999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.827000</v>
+        <v>994.827</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.742000</v>
+        <v>-108.742</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>34501.380036</v>
+        <v>34501.380036000002</v>
       </c>
       <c r="AZ19" s="1">
         <v>9.583717</v>
       </c>
       <c r="BA19" s="1">
-        <v>1003.070000</v>
+        <v>1003.07</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.327000</v>
+        <v>-124.327</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>34511.999352</v>
+        <v>34511.999351999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.586666</v>
+        <v>9.5866659999999992</v>
       </c>
       <c r="BF19" s="1">
-        <v>1041.370000</v>
+        <v>1041.3699999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.181000</v>
+        <v>-196.18100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>34523.015496</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.589727</v>
+        <v>9.5897269999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1107.490000</v>
+        <v>1107.49</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.233000</v>
+        <v>-313.233</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>34533.550522</v>
+        <v>34533.550521999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.592653</v>
+        <v>9.5926530000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-498.317000</v>
+        <v>-498.31700000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>34544.575099</v>
+        <v>34544.575099000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.595715</v>
+        <v>9.5957150000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>1336.810000</v>
+        <v>1336.81</v>
       </c>
       <c r="BV19" s="1">
-        <v>-701.971000</v>
+        <v>-701.971</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>34555.400323</v>
+        <v>34555.400323000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.598722</v>
+        <v>9.5987220000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.760000</v>
+        <v>1472.76</v>
       </c>
       <c r="CA19" s="1">
-        <v>-918.946000</v>
+        <v>-918.94600000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>34568.129644</v>
+        <v>34568.129644000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.602258</v>
+        <v>9.6022580000000008</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.950000</v>
+        <v>1830.95</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1435.620000</v>
+        <v>-1435.62</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>34395.464832</v>
+        <v>34395.464831999998</v>
       </c>
       <c r="B20" s="1">
-        <v>9.554296</v>
+        <v>9.5542960000000008</v>
       </c>
       <c r="C20" s="1">
-        <v>902.956000</v>
+        <v>902.95600000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-202.450000</v>
+        <v>-202.45</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>34405.965604</v>
+        <v>34405.965603999997</v>
       </c>
       <c r="G20" s="1">
-        <v>9.557213</v>
+        <v>9.5572130000000008</v>
       </c>
       <c r="H20" s="1">
-        <v>920.950000</v>
+        <v>920.95</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.269000</v>
+        <v>-171.26900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>34416.421766</v>
+        <v>34416.421765999999</v>
       </c>
       <c r="L20" s="1">
         <v>9.560117</v>
       </c>
       <c r="M20" s="1">
-        <v>944.152000</v>
+        <v>944.15200000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.143000</v>
+        <v>-121.143</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>34426.997469</v>
+        <v>34426.997469000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.563055</v>
+        <v>9.5630550000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>951.244000</v>
+        <v>951.24400000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.769000</v>
+        <v>-104.76900000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>34437.484873</v>
+        <v>34437.484873000001</v>
       </c>
       <c r="V20" s="1">
-        <v>9.565968</v>
+        <v>9.5659679999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>957.871000</v>
+        <v>957.87099999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.399100</v>
+        <v>-89.399100000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>34448.365150</v>
+        <v>34448.365149999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.568990</v>
+        <v>9.5689899999999994</v>
       </c>
       <c r="AB20" s="1">
-        <v>965.076000</v>
+        <v>965.07600000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.439100</v>
+        <v>-77.439099999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>34458.915021</v>
+        <v>34458.915021000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.571921</v>
+        <v>9.5719209999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.745000</v>
+        <v>969.745</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.134700</v>
+        <v>-75.134699999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>34469.398959</v>
+        <v>34469.398958999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.574833</v>
+        <v>9.5748329999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.927000</v>
+        <v>976.92700000000002</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.733400</v>
+        <v>-79.733400000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>34479.991024</v>
+        <v>34479.991024000003</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.577775</v>
+        <v>9.5777750000000008</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.009000</v>
+        <v>985.00900000000001</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.270700</v>
+        <v>-91.270700000000005</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>34490.691716</v>
+        <v>34490.691716000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.580748</v>
+        <v>9.5807479999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.828000</v>
+        <v>994.82799999999997</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>34501.738648</v>
+        <v>34501.738647999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.583816</v>
+        <v>9.5838160000000006</v>
       </c>
       <c r="BA20" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.333000</v>
+        <v>-124.333</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>34512.360439</v>
+        <v>34512.360438999996</v>
       </c>
       <c r="BE20" s="1">
         <v>9.586767</v>
       </c>
       <c r="BF20" s="1">
-        <v>1041.380000</v>
+        <v>1041.3800000000001</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.176000</v>
+        <v>-196.17599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>34523.763959</v>
+        <v>34523.763959000004</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.589934</v>
+        <v>9.5899339999999995</v>
       </c>
       <c r="BK20" s="1">
-        <v>1107.500000</v>
+        <v>1107.5</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.226000</v>
+        <v>-313.226</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>34533.969145</v>
+        <v>34533.969145000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.592769</v>
+        <v>9.5927690000000005</v>
       </c>
       <c r="BP20" s="1">
-        <v>1215.120000</v>
+        <v>1215.1199999999999</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-498.299000</v>
+        <v>-498.29899999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>34545.002686</v>
@@ -5317,1587 +5733,1588 @@
         <v>9.595834</v>
       </c>
       <c r="BU20" s="1">
-        <v>1336.880000</v>
+        <v>1336.88</v>
       </c>
       <c r="BV20" s="1">
-        <v>-702.042000</v>
+        <v>-702.04200000000003</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>34555.826348</v>
+        <v>34555.826348000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.598841</v>
+        <v>9.5988410000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.940000</v>
+        <v>1472.94</v>
       </c>
       <c r="CA20" s="1">
-        <v>-918.993000</v>
+        <v>-918.99300000000005</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>34568.669269</v>
+        <v>34568.669268999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.602408</v>
+        <v>9.6024080000000005</v>
       </c>
       <c r="CE20" s="1">
-        <v>1832.280000</v>
+        <v>1832.28</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1434.490000</v>
+        <v>-1434.49</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>34395.840805</v>
       </c>
       <c r="B21" s="1">
-        <v>9.554400</v>
+        <v>9.5543999999999993</v>
       </c>
       <c r="C21" s="1">
-        <v>902.963000</v>
+        <v>902.96299999999997</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.236000</v>
+        <v>-202.23599999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>34406.312347</v>
+        <v>34406.312346999999</v>
       </c>
       <c r="G21" s="1">
-        <v>9.557309</v>
+        <v>9.5573090000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>920.880000</v>
+        <v>920.88</v>
       </c>
       <c r="I21" s="1">
-        <v>-170.987000</v>
+        <v>-170.98699999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>34416.766980</v>
+        <v>34416.76698</v>
       </c>
       <c r="L21" s="1">
-        <v>9.560213</v>
+        <v>9.5602129999999992</v>
       </c>
       <c r="M21" s="1">
-        <v>944.155000</v>
+        <v>944.15499999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.545000</v>
+        <v>-121.545</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>34427.347639</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.563152</v>
+        <v>9.5631520000000005</v>
       </c>
       <c r="R21" s="1">
-        <v>951.217000</v>
+        <v>951.21699999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.772000</v>
+        <v>-104.77200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>34437.843481</v>
+        <v>34437.843481000004</v>
       </c>
       <c r="V21" s="1">
-        <v>9.566068</v>
+        <v>9.5660679999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>957.845000</v>
+        <v>957.84500000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.370900</v>
+        <v>-89.370900000000006</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>34448.783242</v>
+        <v>34448.783241999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.569106</v>
+        <v>9.5691059999999997</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.969000</v>
+        <v>964.96900000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.453100</v>
+        <v>-77.453100000000006</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>34459.184876</v>
+        <v>34459.184875999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.571996</v>
+        <v>9.5719960000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.790000</v>
+        <v>969.79</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.137500</v>
+        <v>-75.137500000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>34469.694583</v>
+        <v>34469.694582999997</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.574915</v>
+        <v>9.5749150000000007</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.949000</v>
+        <v>976.94899999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.723300</v>
+        <v>-79.723299999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>34480.353600</v>
+        <v>34480.353600000002</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.577876</v>
+        <v>9.5778759999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.007000</v>
+        <v>985.00699999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.303400</v>
+        <v>-91.303399999999996</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>34491.054290</v>
+        <v>34491.05429</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.580848</v>
+        <v>9.5808479999999996</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.844000</v>
+        <v>994.84400000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.735000</v>
+        <v>-108.735</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>34502.096260</v>
+        <v>34502.096259999998</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.583916</v>
+        <v>9.5839160000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>1003.070000</v>
+        <v>1003.07</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.326000</v>
+        <v>-124.32599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>34513.082117</v>
+        <v>34513.082116999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.586967</v>
+        <v>9.5869669999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1041.400000</v>
+        <v>1041.4000000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.181000</v>
+        <v>-196.18100000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>34524.141431</v>
+        <v>34524.141430999996</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.590039</v>
+        <v>9.5900390000000009</v>
       </c>
       <c r="BK21" s="1">
-        <v>1107.490000</v>
+        <v>1107.49</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.237000</v>
+        <v>-313.23700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>34534.366441</v>
+        <v>34534.366440999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.592880</v>
+        <v>9.5928799999999992</v>
       </c>
       <c r="BP21" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-498.319000</v>
+        <v>-498.31900000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>34545.414330</v>
+        <v>34545.41433</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.595948</v>
+        <v>9.5959479999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1336.860000</v>
+        <v>1336.86</v>
       </c>
       <c r="BV21" s="1">
-        <v>-701.995000</v>
+        <v>-701.995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>34556.259357</v>
+        <v>34556.259357000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.598961</v>
+        <v>9.5989609999999992</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.930000</v>
+        <v>1472.93</v>
       </c>
       <c r="CA21" s="1">
-        <v>-918.935000</v>
+        <v>-918.93499999999995</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>34569.515966</v>
+        <v>34569.515965999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.602643</v>
+        <v>9.6026430000000005</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.770000</v>
+        <v>1831.77</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1436.050000</v>
+        <v>-1436.05</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>34396.180567</v>
+        <v>34396.180567000003</v>
       </c>
       <c r="B22" s="1">
-        <v>9.554495</v>
+        <v>9.5544949999999993</v>
       </c>
       <c r="C22" s="1">
-        <v>902.987000</v>
+        <v>902.98699999999997</v>
       </c>
       <c r="D22" s="1">
-        <v>-202.438000</v>
+        <v>-202.43799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>34406.657026</v>
+        <v>34406.657026000001</v>
       </c>
       <c r="G22" s="1">
-        <v>9.557405</v>
+        <v>9.5574049999999993</v>
       </c>
       <c r="H22" s="1">
-        <v>921.508000</v>
+        <v>921.50800000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.314000</v>
+        <v>-171.31399999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>34417.111205</v>
+        <v>34417.111205000001</v>
       </c>
       <c r="L22" s="1">
-        <v>9.560309</v>
+        <v>9.5603090000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>944.338000</v>
+        <v>944.33799999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.058000</v>
+        <v>-121.05800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>34427.774230</v>
+        <v>34427.774230000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.563271</v>
+        <v>9.5632710000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>951.184000</v>
+        <v>951.18399999999997</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.782000</v>
+        <v>-104.782</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>34438.515560</v>
+        <v>34438.51556</v>
       </c>
       <c r="V22" s="1">
-        <v>9.566254</v>
+        <v>9.5662540000000007</v>
       </c>
       <c r="W22" s="1">
-        <v>957.951000</v>
+        <v>957.95100000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.402000</v>
+        <v>-89.402000000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>34449.071454</v>
+        <v>34449.071453999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.569187</v>
+        <v>9.5691869999999994</v>
       </c>
       <c r="AB22" s="1">
-        <v>965.125000</v>
+        <v>965.125</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.484200</v>
+        <v>-77.484200000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>34459.529564</v>
+        <v>34459.529563999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.572092</v>
+        <v>9.5720919999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.751000</v>
+        <v>969.75099999999998</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.131500</v>
+        <v>-75.131500000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>34470.050702</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.575014</v>
+        <v>9.5750139999999995</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.928000</v>
+        <v>976.928</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.718900</v>
+        <v>-79.718900000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>34480.716208</v>
+        <v>34480.716207999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.577977</v>
+        <v>9.5779770000000006</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.019000</v>
+        <v>985.01900000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.274500</v>
+        <v>-91.274500000000003</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>34491.782455</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.581051</v>
+        <v>9.5810510000000004</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.841000</v>
+        <v>994.84100000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.757000</v>
+        <v>-108.75700000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>34502.821911</v>
+        <v>34502.821910999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.584117</v>
+        <v>9.5841170000000009</v>
       </c>
       <c r="BA22" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.318000</v>
+        <v>-124.318</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>34513.469495</v>
+        <v>34513.469494999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.587075</v>
+        <v>9.5870750000000005</v>
       </c>
       <c r="BF22" s="1">
-        <v>1041.380000</v>
+        <v>1041.3800000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.208000</v>
+        <v>-196.208</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>34524.515399</v>
+        <v>34524.515399000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.590143</v>
+        <v>9.5901429999999994</v>
       </c>
       <c r="BK22" s="1">
-        <v>1107.510000</v>
+        <v>1107.51</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.244000</v>
+        <v>-313.24400000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>34534.766217</v>
+        <v>34534.766216999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.592991</v>
+        <v>9.5929909999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-498.358000</v>
+        <v>-498.358</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>34546.145434</v>
+        <v>34546.145433999998</v>
       </c>
       <c r="BT22" s="1">
         <v>9.596152</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="BV22" s="1">
-        <v>-702.043000</v>
+        <v>-702.04300000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>34556.702284</v>
+        <v>34556.702283999999</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.599084</v>
+        <v>9.5990839999999995</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="CA22" s="1">
-        <v>-918.994000</v>
+        <v>-918.99400000000003</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>34569.747571</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.602708</v>
+        <v>9.6027079999999998</v>
       </c>
       <c r="CE22" s="1">
-        <v>1831.300000</v>
+        <v>1831.3</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1436.110000</v>
+        <v>-1436.11</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>34396.524257</v>
+        <v>34396.524256999997</v>
       </c>
       <c r="B23" s="1">
-        <v>9.554590</v>
+        <v>9.5545899999999993</v>
       </c>
       <c r="C23" s="1">
-        <v>902.939000</v>
+        <v>902.93899999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-202.326000</v>
+        <v>-202.32599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>34407.074658</v>
+        <v>34407.074657999998</v>
       </c>
       <c r="G23" s="1">
-        <v>9.557521</v>
+        <v>9.5575209999999995</v>
       </c>
       <c r="H23" s="1">
-        <v>921.017000</v>
+        <v>921.01700000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.270000</v>
+        <v>-171.27</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>34417.522916</v>
+        <v>34417.522916000002</v>
       </c>
       <c r="L23" s="1">
-        <v>9.560423</v>
+        <v>9.5604230000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>944.494000</v>
+        <v>944.49400000000003</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.306000</v>
+        <v>-121.306</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>34428.053941</v>
+        <v>34428.053940999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.563348</v>
+        <v>9.5633479999999995</v>
       </c>
       <c r="R23" s="1">
-        <v>951.225000</v>
+        <v>951.22500000000002</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.723000</v>
+        <v>-104.723</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>34438.859784</v>
       </c>
       <c r="V23" s="1">
-        <v>9.566350</v>
+        <v>9.5663499999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>957.919000</v>
+        <v>957.91899999999998</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.359100</v>
+        <v>-89.359099999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>34449.419643</v>
+        <v>34449.419643000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.569283</v>
+        <v>9.5692830000000004</v>
       </c>
       <c r="AB23" s="1">
-        <v>965.028000</v>
+        <v>965.02800000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.406100</v>
+        <v>-77.406099999999995</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>34459.872796</v>
+        <v>34459.872796000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.572187</v>
+        <v>9.5721869999999996</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.786000</v>
+        <v>969.78599999999994</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.161000</v>
+        <v>-75.161000000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>34470.403358</v>
+        <v>34470.403358000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.575112</v>
+        <v>9.5751120000000007</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.932000</v>
+        <v>976.93200000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.726300</v>
+        <v>-79.726299999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>34481.442821</v>
+        <v>34481.442820999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.578179</v>
+        <v>9.5781790000000004</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.000000</v>
+        <v>985</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.279500</v>
+        <v>-91.279499999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>34492.169326</v>
+        <v>34492.169326000003</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.581158</v>
+        <v>9.5811580000000003</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.825000</v>
+        <v>994.82500000000005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.725000</v>
+        <v>-108.72499999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>34503.195362</v>
+        <v>34503.195361999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.584221</v>
+        <v>9.5842209999999994</v>
       </c>
       <c r="BA23" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.323000</v>
+        <v>-124.32299999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>34513.831076</v>
+        <v>34513.831076000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.587175</v>
+        <v>9.5871750000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.183000</v>
+        <v>-196.18299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>34525.195414</v>
+        <v>34525.195414000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.590332</v>
+        <v>9.5903320000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1107.520000</v>
+        <v>1107.52</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.262000</v>
+        <v>-313.262</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>34535.495831</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.593193</v>
+        <v>9.5931929999999994</v>
       </c>
       <c r="BP23" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-498.295000</v>
+        <v>-498.29500000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>34546.270458</v>
+        <v>34546.270457999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.596186</v>
+        <v>9.5961859999999994</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.860000</v>
+        <v>1336.86</v>
       </c>
       <c r="BV23" s="1">
-        <v>-702.009000</v>
+        <v>-702.00900000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>34557.117963</v>
+        <v>34557.117962999997</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.599199</v>
+        <v>9.5991990000000005</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.860000</v>
+        <v>1472.86</v>
       </c>
       <c r="CA23" s="1">
-        <v>-919.005000</v>
+        <v>-919.005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>34570.268363</v>
+        <v>34570.268363000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.602852</v>
+        <v>9.6028520000000004</v>
       </c>
       <c r="CE23" s="1">
-        <v>1832.680000</v>
+        <v>1832.68</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1435.400000</v>
+        <v>-1435.4</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>34396.953792</v>
       </c>
       <c r="B24" s="1">
-        <v>9.554709</v>
+        <v>9.5547090000000008</v>
       </c>
       <c r="C24" s="1">
-        <v>903.166000</v>
+        <v>903.16600000000005</v>
       </c>
       <c r="D24" s="1">
-        <v>-202.324000</v>
+        <v>-202.32400000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>34407.347954</v>
+        <v>34407.347953999997</v>
       </c>
       <c r="G24" s="1">
-        <v>9.557597</v>
+        <v>9.5575969999999995</v>
       </c>
       <c r="H24" s="1">
-        <v>920.657000</v>
+        <v>920.65700000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.103000</v>
+        <v>-171.10300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>34417.819988</v>
+        <v>34417.819988000003</v>
       </c>
       <c r="L24" s="1">
-        <v>9.560506</v>
+        <v>9.5605060000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>944.308000</v>
+        <v>944.30799999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.070000</v>
+        <v>-121.07</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>34428.403126</v>
+        <v>34428.403125999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.563445</v>
+        <v>9.5634449999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>951.209000</v>
+        <v>951.20899999999995</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.755000</v>
+        <v>-104.755</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>34439.207974</v>
+        <v>34439.207973999997</v>
       </c>
       <c r="V24" s="1">
-        <v>9.566447</v>
+        <v>9.5664470000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>957.847000</v>
+        <v>957.84699999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.389200</v>
+        <v>-89.389200000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>34449.768298</v>
+        <v>34449.768298000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.569380</v>
+        <v>9.5693800000000007</v>
       </c>
       <c r="AB24" s="1">
-        <v>965.077000</v>
+        <v>965.077</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.468000</v>
+        <v>-77.468000000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>34460.559296</v>
+        <v>34460.559295999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.572378</v>
+        <v>9.5723780000000005</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.731000</v>
+        <v>969.73099999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.090200</v>
+        <v>-75.090199999999996</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>34471.098749</v>
+        <v>34471.098748999997</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.575305</v>
+        <v>9.5753050000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.909000</v>
+        <v>976.90899999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.702900</v>
+        <v>-79.7029</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>34481.818816</v>
+        <v>34481.818815999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.578283</v>
+        <v>9.5782830000000008</v>
       </c>
       <c r="AQ24" s="1">
-        <v>984.982000</v>
+        <v>984.98199999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.268600</v>
+        <v>-91.268600000000006</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>34492.533856</v>
+        <v>34492.533856000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.581259</v>
+        <v>9.5812589999999993</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.816000</v>
+        <v>994.81600000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.724000</v>
+        <v>-108.724</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>34503.574923</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.584326</v>
+        <v>9.5843260000000008</v>
       </c>
       <c r="BA24" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.329000</v>
+        <v>-124.32899999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>34514.502676</v>
+        <v>34514.502675999996</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.587362</v>
+        <v>9.5873620000000006</v>
       </c>
       <c r="BF24" s="1">
-        <v>1041.410000</v>
+        <v>1041.4100000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.180000</v>
+        <v>-196.18</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>34525.305030</v>
+        <v>34525.305030000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>9.590363</v>
       </c>
       <c r="BK24" s="1">
-        <v>1107.500000</v>
+        <v>1107.5</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.223000</v>
+        <v>-313.22300000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>34535.609416</v>
+        <v>34535.609415999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.593225</v>
+        <v>9.5932250000000003</v>
       </c>
       <c r="BP24" s="1">
-        <v>1215.150000</v>
+        <v>1215.1500000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-498.338000</v>
+        <v>-498.33800000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>34546.684125</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.596301</v>
+        <v>9.5963010000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.870000</v>
+        <v>1336.87</v>
       </c>
       <c r="BV24" s="1">
-        <v>-701.993000</v>
+        <v>-701.99300000000005</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>34557.564827</v>
+        <v>34557.564827000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.599324</v>
+        <v>9.5993239999999993</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.880000</v>
+        <v>1472.88</v>
       </c>
       <c r="CA24" s="1">
-        <v>-918.937000</v>
+        <v>-918.93700000000001</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>34570.785194</v>
+        <v>34570.785193999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.602996</v>
+        <v>9.6029959999999992</v>
       </c>
       <c r="CE24" s="1">
-        <v>1832.150000</v>
+        <v>1832.15</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1435.670000</v>
+        <v>-1435.67</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>34397.225634</v>
+        <v>34397.225634000002</v>
       </c>
       <c r="B25" s="1">
-        <v>9.554785</v>
+        <v>9.5547850000000007</v>
       </c>
       <c r="C25" s="1">
-        <v>902.951000</v>
+        <v>902.95100000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.346000</v>
+        <v>-202.346</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>34407.692211</v>
+        <v>34407.692211000001</v>
       </c>
       <c r="G25" s="1">
-        <v>9.557692</v>
+        <v>9.5576919999999994</v>
       </c>
       <c r="H25" s="1">
-        <v>921.025000</v>
+        <v>921.02499999999998</v>
       </c>
       <c r="I25" s="1">
-        <v>-170.896000</v>
+        <v>-170.89599999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>34418.164211</v>
+        <v>34418.164211000003</v>
       </c>
       <c r="L25" s="1">
-        <v>9.560601</v>
+        <v>9.5606010000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>944.323000</v>
+        <v>944.32299999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.354000</v>
+        <v>-121.354</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>34428.752310</v>
+        <v>34428.752310000003</v>
       </c>
       <c r="Q25" s="1">
         <v>9.563542</v>
       </c>
       <c r="R25" s="1">
-        <v>951.305000</v>
+        <v>951.30499999999995</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.761000</v>
+        <v>-104.761</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>34439.894470</v>
+        <v>34439.894469999999</v>
       </c>
       <c r="V25" s="1">
-        <v>9.566637</v>
+        <v>9.5666370000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>957.869000</v>
+        <v>957.86900000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.404000</v>
+        <v>-89.403999999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>34450.465208</v>
+        <v>34450.465208000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.569574</v>
+        <v>9.5695739999999994</v>
       </c>
       <c r="AB25" s="1">
-        <v>965.152000</v>
+        <v>965.15200000000004</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.535500</v>
+        <v>-77.535499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>34460.904475</v>
+        <v>34460.904475000003</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.572473</v>
+        <v>9.5724730000000005</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.761000</v>
+        <v>969.76099999999997</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.161400</v>
+        <v>-75.1614</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>34471.444957</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.575401</v>
+        <v>9.5754009999999994</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.930000</v>
+        <v>976.93</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.728600</v>
+        <v>-79.7286</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>34482.196767</v>
+        <v>34482.196767000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.578388</v>
+        <v>9.5783880000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.017000</v>
+        <v>985.01700000000005</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.287400</v>
+        <v>-91.287400000000005</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>34493.205477</v>
+        <v>34493.205477000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.581446</v>
+        <v>9.5814459999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.828000</v>
+        <v>994.82799999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.744000</v>
+        <v>-108.744</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>34504.251345</v>
+        <v>34504.251344999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.584514</v>
+        <v>9.5845140000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1003.060000</v>
+        <v>1003.06</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.325000</v>
+        <v>-124.325</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>34514.949090</v>
+        <v>34514.949090000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.587486</v>
+        <v>9.5874860000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1041.410000</v>
+        <v>1041.4100000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.191000</v>
+        <v>-196.191</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>34525.671572</v>
+        <v>34525.671571999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.590464</v>
+        <v>9.5904640000000008</v>
       </c>
       <c r="BK25" s="1">
-        <v>1107.500000</v>
+        <v>1107.5</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.228000</v>
+        <v>-313.22800000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>34536.004732</v>
+        <v>34536.004732000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.593335</v>
+        <v>9.5933349999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1215.110000</v>
+        <v>1215.1099999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-498.307000</v>
+        <v>-498.30700000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>34547.118088</v>
+        <v>34547.118088000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.596422</v>
+        <v>9.5964220000000005</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.850000</v>
+        <v>1336.85</v>
       </c>
       <c r="BV25" s="1">
-        <v>-701.936000</v>
+        <v>-701.93600000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>34557.986701</v>
+        <v>34557.986701000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.599441</v>
+        <v>9.5994410000000006</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.920000</v>
+        <v>1472.92</v>
       </c>
       <c r="CA25" s="1">
-        <v>-918.998000</v>
+        <v>-918.99800000000005</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>34571.336249</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.603149</v>
+        <v>9.6031490000000002</v>
       </c>
       <c r="CE25" s="1">
-        <v>1831.430000</v>
+        <v>1831.43</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1435.790000</v>
+        <v>-1435.79</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>34397.567872</v>
       </c>
       <c r="B26" s="1">
-        <v>9.554880</v>
+        <v>9.5548800000000007</v>
       </c>
       <c r="C26" s="1">
-        <v>902.962000</v>
+        <v>902.96199999999999</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.568000</v>
+        <v>-202.56800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>34408.036433</v>
+        <v>34408.036433000001</v>
       </c>
       <c r="G26" s="1">
-        <v>9.557788</v>
+        <v>9.5577880000000004</v>
       </c>
       <c r="H26" s="1">
-        <v>921.162000</v>
+        <v>921.16200000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.498000</v>
+        <v>-171.49799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>34418.512899</v>
+        <v>34418.512899000001</v>
       </c>
       <c r="L26" s="1">
-        <v>9.560698</v>
+        <v>9.5606980000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>944.245000</v>
+        <v>944.245</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.244000</v>
+        <v>-121.244</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>34429.446213</v>
+        <v>34429.446213000003</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.563735</v>
+        <v>9.5637349999999994</v>
       </c>
       <c r="R26" s="1">
-        <v>951.279000</v>
+        <v>951.279</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.754000</v>
+        <v>-104.754</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>34440.230543</v>
+        <v>34440.230542999998</v>
       </c>
       <c r="V26" s="1">
-        <v>9.566731</v>
+        <v>9.5667310000000008</v>
       </c>
       <c r="W26" s="1">
-        <v>957.908000</v>
+        <v>957.90800000000002</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.345900</v>
+        <v>-89.3459</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>34450.814855</v>
+        <v>34450.814854999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.569671</v>
+        <v>9.5696709999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>965.165000</v>
+        <v>965.16499999999996</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.469900</v>
+        <v>-77.469899999999996</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>34461.246219</v>
+        <v>34461.246219000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.572568</v>
+        <v>9.5725680000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.772000</v>
+        <v>969.77200000000005</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.132400</v>
+        <v>-75.132400000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>34471.793644</v>
+        <v>34471.793643999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.575498</v>
+        <v>9.5754979999999996</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.924000</v>
+        <v>976.92399999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.731900</v>
+        <v>-79.731899999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>34482.882701</v>
+        <v>34482.882701000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.578579</v>
+        <v>9.5785789999999995</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.003000</v>
+        <v>985.00300000000004</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.284300</v>
+        <v>-91.284300000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>34493.663247</v>
+        <v>34493.663246999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.581573</v>
+        <v>9.5815730000000006</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.812000</v>
+        <v>994.81200000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.715000</v>
+        <v>-108.715</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>34504.659058</v>
+        <v>34504.659057999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.584628</v>
+        <v>9.5846280000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1003.070000</v>
+        <v>1003.07</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.340000</v>
+        <v>-124.34</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>34515.312132</v>
+        <v>34515.312131999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.587587</v>
+        <v>9.5875869999999992</v>
       </c>
       <c r="BF26" s="1">
-        <v>1041.390000</v>
+        <v>1041.3900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.187000</v>
+        <v>-196.18700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>34526.047044</v>
+        <v>34526.047043999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.590569</v>
+        <v>9.5905690000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1107.500000</v>
+        <v>1107.5</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.230000</v>
+        <v>-313.23</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>34536.427815</v>
+        <v>34536.427815000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.593452</v>
+        <v>9.5934519999999992</v>
       </c>
       <c r="BP26" s="1">
-        <v>1215.100000</v>
+        <v>1215.0999999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-498.284000</v>
+        <v>-498.28399999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>34547.546631</v>
+        <v>34547.546630999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.596541</v>
+        <v>9.5965410000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.900000</v>
+        <v>1336.9</v>
       </c>
       <c r="BV26" s="1">
-        <v>-702.009000</v>
+        <v>-702.00900000000001</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>34558.409513</v>
+        <v>34558.409512999999</v>
       </c>
       <c r="BY26" s="1">
         <v>9.599558</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.990000</v>
+        <v>1472.99</v>
       </c>
       <c r="CA26" s="1">
-        <v>-918.979000</v>
+        <v>-918.97900000000004</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>34571.867966</v>
+        <v>34571.867965999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.603297</v>
+        <v>9.6032969999999995</v>
       </c>
       <c r="CE26" s="1">
-        <v>1832.420000</v>
+        <v>1832.42</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1435.040000</v>
+        <v>-1435.04</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>